--- a/csv_files/2d_1z/target_vs_output.xlsx
+++ b/csv_files/2d_1z/target_vs_output.xlsx
@@ -315,58 +315,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7725211364525599E-4</c:v>
+                    <c:v>1.8038997811179402E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6157192071585723E-3</c:v>
+                    <c:v>1.733930175040114E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.0116697361415798E-3</c:v>
+                    <c:v>1.3025305922920406E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.785610369803065E-3</c:v>
+                    <c:v>2.5775108489284982E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.008728543700089E-3</c:v>
+                    <c:v>3.7753843576959441E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0032599361040074E-2</c:v>
+                    <c:v>4.2554854619723956E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.2407276711527972E-2</c:v>
+                    <c:v>4.9034763458053597E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6515879214368562E-2</c:v>
+                    <c:v>4.4035239509325599E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.5060314467540673E-2</c:v>
+                    <c:v>3.2864001234842226E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1752736151755908E-2</c:v>
+                    <c:v>2.4430415753659354E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.126798086035463E-2</c:v>
+                    <c:v>1.625187565055523E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.570477512581864E-3</c:v>
+                    <c:v>5.9545424189790756E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.4921916761353209E-3</c:v>
+                    <c:v>3.1477130810021758E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.915001306457003E-3</c:v>
+                    <c:v>1.6738599897145267E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.4819428758709949E-3</c:v>
+                    <c:v>1.2610852811518146E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.5591528477122575E-4</c:v>
+                    <c:v>5.380933321779412E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>5.6164406072630294E-5</c:v>
+                    <c:v>1.4520655790348713E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>2.231747194756178E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -381,58 +381,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.7725211364525599E-4</c:v>
+                    <c:v>1.8038997811179402E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6157192071585723E-3</c:v>
+                    <c:v>1.733930175040114E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.0116697361415798E-3</c:v>
+                    <c:v>1.3025305922920406E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>7.785610369803065E-3</c:v>
+                    <c:v>2.5775108489284982E-2</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>7.008728543700089E-3</c:v>
+                    <c:v>3.7753843576959441E-2</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>1.0032599361040074E-2</c:v>
+                    <c:v>4.2554854619723956E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>1.2407276711527972E-2</c:v>
+                    <c:v>4.9034763458053597E-2</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.6515879214368562E-2</c:v>
+                    <c:v>4.4035239509325599E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>1.5060314467540673E-2</c:v>
+                    <c:v>3.2864001234842226E-2</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>1.1752736151755908E-2</c:v>
+                    <c:v>2.4430415753659354E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.126798086035463E-2</c:v>
+                    <c:v>1.625187565055523E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>6.570477512581864E-3</c:v>
+                    <c:v>5.9545424189790756E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>4.4921916761353209E-3</c:v>
+                    <c:v>3.1477130810021758E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>2.915001306457003E-3</c:v>
+                    <c:v>1.6738599897145267E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.4819428758709949E-3</c:v>
+                    <c:v>1.2610852811518146E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>3.5591528477122575E-4</c:v>
+                    <c:v>5.380933321779412E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>5.6164406072630294E-5</c:v>
+                    <c:v>1.4520655790348713E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>0</c:v>
+                    <c:v>2.231747194756178E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>0</c:v>
@@ -464,58 +464,58 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73220973782771537</c:v>
+                  <c:v>0.71161048689138584</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.672284644194757</c:v>
+                  <c:v>21.99625468164794</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.910112359550567</c:v>
+                  <c:v>77.052434456928836</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>130.57677902621722</c:v>
+                  <c:v>135.36891385767791</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>160.47003745318352</c:v>
+                  <c:v>167.26029962546815</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>160.79400749063669</c:v>
+                  <c:v>169.8932584269663</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.99063670411985</c:v>
+                  <c:v>148.29026217228466</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>106.32022471910112</c:v>
+                  <c:v>114.71348314606742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.599250936329582</c:v>
+                  <c:v>79.838951310861432</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.81647940074906</c:v>
+                  <c:v>50.651685393258425</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>25.938202247191011</c:v>
+                  <c:v>28.940074906367041</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.455056179775282</c:v>
+                  <c:v>14.814606741573034</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.1235955056179776</c:v>
+                  <c:v>7.4438202247191008</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.5018726591760299</c:v>
+                  <c:v>3.1479400749063671</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85205992509363293</c:v>
+                  <c:v>1.151685393258427</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22846441947565541</c:v>
+                  <c:v>0.31273408239700373</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.8726591760299626E-2</c:v>
+                  <c:v>4.1198501872659173E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>5.6179775280898875E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>0</c:v>
@@ -556,64 +556,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>6.2051918248203278E-4</c:v>
+                    <c:v>4.781548504187643E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7003983219461547E-3</c:v>
+                    <c:v>1.3275017781160957E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1732945712396298E-2</c:v>
+                    <c:v>8.6733827299518261E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9821003227863763E-2</c:v>
+                    <c:v>1.4973113538596775E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1233353950369961E-2</c:v>
+                    <c:v>3.2441301585810065E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.4024365707687413E-3</c:v>
+                    <c:v>1.0539139971925725E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.1591155141939684E-3</c:v>
+                    <c:v>3.3347115684052978E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.5048512752417419E-2</c:v>
+                    <c:v>5.9611805893860408E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.5590221420203813E-2</c:v>
+                    <c:v>1.0622889509242228E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.7187180371660786E-2</c:v>
+                    <c:v>8.4585355399507279E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.6210285019332482E-2</c:v>
+                    <c:v>7.5809945435066656E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.8837498077482208E-2</c:v>
+                    <c:v>4.7866387308120734E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.5397138008277238E-2</c:v>
+                    <c:v>3.1453032716895653E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3731686528574436E-2</c:v>
+                    <c:v>2.0333977973532062E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7256361173959265E-3</c:v>
+                    <c:v>1.4297241966251153E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>3.0532360064439651E-3</c:v>
+                    <c:v>5.5287077015879883E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.330703322768263E-3</c:v>
+                    <c:v>2.5203771291106551E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.7019262742736839E-4</c:v>
+                    <c:v>4.7266404167951559E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2771564408033564E-4</c:v>
+                    <c:v>8.2349909339562641E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>9.5023416690319027E-4</c:v>
+                    <c:v>1.3450626146820093E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -625,64 +625,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>6.2051918248203278E-4</c:v>
+                    <c:v>4.781548504187643E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.7003983219461547E-3</c:v>
+                    <c:v>1.3275017781160957E-4</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.1732945712396298E-2</c:v>
+                    <c:v>8.6733827299518261E-4</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.9821003227863763E-2</c:v>
+                    <c:v>1.4973113538596775E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1233353950369961E-2</c:v>
+                    <c:v>3.2441301585810065E-4</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>5.4024365707687413E-3</c:v>
+                    <c:v>1.0539139971925725E-3</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>5.1591155141939684E-3</c:v>
+                    <c:v>3.3347115684052978E-3</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.5048512752417419E-2</c:v>
+                    <c:v>5.9611805893860408E-3</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>2.5590221420203813E-2</c:v>
+                    <c:v>1.0622889509242228E-2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.7187180371660786E-2</c:v>
+                    <c:v>8.4585355399507279E-3</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>3.6210285019332482E-2</c:v>
+                    <c:v>7.5809945435066656E-3</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>2.8837498077482208E-2</c:v>
+                    <c:v>4.7866387308120734E-3</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>1.5397138008277238E-2</c:v>
+                    <c:v>3.1453032716895653E-3</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>1.3731686528574436E-2</c:v>
+                    <c:v>2.0333977973532062E-3</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>8.7256361173959265E-3</c:v>
+                    <c:v>1.4297241966251153E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>3.0532360064439651E-3</c:v>
+                    <c:v>5.5287077015879883E-4</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>1.330703322768263E-3</c:v>
+                    <c:v>2.5203771291106551E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.7019262742736839E-4</c:v>
+                    <c:v>4.7266404167951559E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.2771564408033564E-4</c:v>
+                    <c:v>8.2349909339562641E-5</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>9.5023416690319027E-4</c:v>
+                    <c:v>1.3450626146820093E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -708,64 +708,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5.0351597335579576E-4</c:v>
+                  <c:v>-1.1955979940296589E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.8783805067424213</c:v>
+                  <c:v>0.69436526951494759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.317684116602361</c:v>
+                  <c:v>21.639656313349665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.623744432399064</c:v>
+                  <c:v>76.499171932091571</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122.84897380821685</c:v>
+                  <c:v>134.51602352870938</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>156.61002344138575</c:v>
+                  <c:v>167.70256453953388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>162.51867362533147</c:v>
+                  <c:v>171.83606397078688</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>143.9234647072206</c:v>
+                  <c:v>151.32986655838147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>116.80042863695786</c:v>
+                  <c:v>120.59515649459756</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83.370158394623971</c:v>
+                  <c:v>86.151348392614793</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54.304425313133763</c:v>
+                  <c:v>57.137443449613173</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31.423730698696669</c:v>
+                  <c:v>33.692784141511858</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.204632244460001</c:v>
+                  <c:v>18.048377238855785</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.2404529672632201</c:v>
+                  <c:v>9.0662371728303945</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.661610116791465</c:v>
+                  <c:v>3.9773705295855444</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4973277212765845</c:v>
+                  <c:v>1.4870439439677099</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.80739371218345135</c:v>
+                  <c:v>0.4679327497209938</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1649972123515767E-2</c:v>
+                  <c:v>7.383294989553689E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-4.0548421951771108E-2</c:v>
+                  <c:v>1.6366093489254222E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.7512504429127481E-2</c:v>
+                  <c:v>1.845120428080315E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -785,11 +785,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="306521152"/>
-        <c:axId val="306521544"/>
+        <c:axId val="355169232"/>
+        <c:axId val="355162568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="306521152"/>
+        <c:axId val="355169232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,7 +902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306521544"/>
+        <c:crossAx val="355162568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -910,7 +910,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="306521544"/>
+        <c:axId val="355162568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1024,7 +1024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306521152"/>
+        <c:crossAx val="355169232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1727,7 +1727,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2047,8 +2047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2136,29 +2136,29 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D4">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)/178</f>
-        <v>2.196629213483146</v>
+        <v>2.1348314606741572</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)/178</f>
-        <v>0.73220973782771537</v>
+        <v>0.71161048689138584</v>
       </c>
       <c r="N4" s="1">
         <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)/178</f>
-        <v>6.9792678477843526E-2</v>
+        <v>4.5409571734015511E-2</v>
       </c>
       <c r="O4">
         <f t="shared" ref="O4:O22" si="3">N4/SQRT(2)/178</f>
-        <v>2.7725211364525599E-4</v>
+        <v>1.8038997811179402E-4</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -2166,29 +2166,29 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3777</v>
+        <v>3831</v>
       </c>
       <c r="C5">
-        <v>3917</v>
+        <v>3931</v>
       </c>
       <c r="D5">
-        <v>3879</v>
+        <v>3984</v>
       </c>
       <c r="L5" s="1">
         <f t="shared" si="0"/>
-        <v>65.016853932584269</v>
+        <v>65.988764044943821</v>
       </c>
       <c r="M5" s="1">
         <f t="shared" si="1"/>
-        <v>21.672284644194757</v>
+        <v>21.99625468164794</v>
       </c>
       <c r="N5" s="1">
         <f t="shared" si="2"/>
-        <v>0.4067250188035636</v>
+        <v>0.43648226741544377</v>
       </c>
       <c r="O5">
         <f t="shared" si="3"/>
-        <v>1.6157192071585723E-3</v>
+        <v>1.733930175040114E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -2196,29 +2196,29 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>13437</v>
+        <v>13085</v>
       </c>
       <c r="C6">
-        <v>13487</v>
+        <v>13824</v>
       </c>
       <c r="D6">
-        <v>13612</v>
+        <v>14237</v>
       </c>
       <c r="L6" s="1">
         <f t="shared" si="0"/>
-        <v>227.73033707865167</v>
+        <v>231.15730337078651</v>
       </c>
       <c r="M6" s="1">
         <f t="shared" si="1"/>
-        <v>75.910112359550567</v>
+        <v>77.052434456928836</v>
       </c>
       <c r="N6" s="1">
         <f t="shared" si="2"/>
-        <v>0.50639765104831314</v>
+        <v>3.2788604436649704</v>
       </c>
       <c r="O6">
         <f t="shared" si="3"/>
-        <v>2.0116697361415798E-3</v>
+        <v>1.3025305922920406E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -2226,29 +2226,29 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>22844</v>
+        <v>22776</v>
       </c>
       <c r="C7">
-        <v>23392</v>
+        <v>24589</v>
       </c>
       <c r="D7">
-        <v>23492</v>
+        <v>24922</v>
       </c>
       <c r="L7" s="1">
         <f t="shared" si="0"/>
-        <v>391.7303370786517</v>
+        <v>406.10674157303373</v>
       </c>
       <c r="M7" s="1">
         <f t="shared" si="1"/>
-        <v>130.57677902621722</v>
+        <v>135.36891385767791</v>
       </c>
       <c r="N7" s="1">
         <f t="shared" si="2"/>
-        <v>1.9598718081864026</v>
+        <v>6.4883684234988808</v>
       </c>
       <c r="O7">
         <f t="shared" si="3"/>
-        <v>7.785610369803065E-3</v>
+        <v>2.5775108489284982E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -2256,29 +2256,29 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>28213</v>
+        <v>27819</v>
       </c>
       <c r="C8">
-        <v>28659</v>
+        <v>30760</v>
       </c>
       <c r="D8">
-        <v>28819</v>
+        <v>30738</v>
       </c>
       <c r="L8" s="1">
         <f t="shared" si="0"/>
-        <v>481.41011235955057</v>
+        <v>501.78089887640448</v>
       </c>
       <c r="M8" s="1">
         <f t="shared" si="1"/>
-        <v>160.47003745318352</v>
+        <v>167.26029962546815</v>
       </c>
       <c r="N8" s="1">
         <f t="shared" si="2"/>
-        <v>1.7643073351455936</v>
+        <v>9.5037755760482163</v>
       </c>
       <c r="O8">
         <f t="shared" si="3"/>
-        <v>7.008728543700089E-3</v>
+        <v>3.7753843576959441E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -2286,29 +2286,29 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>28240</v>
+        <v>28046</v>
       </c>
       <c r="C9">
-        <v>28507</v>
+        <v>31189</v>
       </c>
       <c r="D9">
-        <v>29117</v>
+        <v>31488</v>
       </c>
       <c r="L9" s="1">
         <f t="shared" si="0"/>
-        <v>482.38202247191009</v>
+        <v>509.67977528089887</v>
       </c>
       <c r="M9" s="1">
         <f>AVERAGE(B9:K9)/178</f>
-        <v>160.79400749063669</v>
+        <v>169.8932584269663</v>
       </c>
       <c r="N9" s="1">
         <f t="shared" si="2"/>
-        <v>2.5255063786384571</v>
+        <v>10.712334153549159</v>
       </c>
       <c r="O9">
         <f t="shared" si="3"/>
-        <v>1.0032599361040074E-2</v>
+        <v>4.2554854619723956E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -2316,29 +2316,29 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>24225</v>
+        <v>23889</v>
       </c>
       <c r="C10">
-        <v>24258</v>
+        <v>27310</v>
       </c>
       <c r="D10">
-        <v>25204</v>
+        <v>27988</v>
       </c>
       <c r="L10" s="1">
         <f t="shared" si="0"/>
-        <v>413.97191011235952</v>
+        <v>444.87078651685391</v>
       </c>
       <c r="M10" s="1">
         <f t="shared" si="1"/>
-        <v>137.99063670411985</v>
+        <v>148.29026217228466</v>
       </c>
       <c r="N10" s="1">
         <f t="shared" si="2"/>
-        <v>3.1232839415654512</v>
+        <v>12.343521696804217</v>
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>1.2407276711527972E-2</v>
+        <v>4.9034763458053597E-2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -2346,29 +2346,29 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>18524</v>
+        <v>18149</v>
       </c>
       <c r="C11">
-        <v>18472</v>
+        <v>21385</v>
       </c>
       <c r="D11">
-        <v>19779</v>
+        <v>21723</v>
       </c>
       <c r="L11" s="1">
         <f t="shared" si="0"/>
-        <v>318.96067415730334</v>
+        <v>344.14044943820227</v>
       </c>
       <c r="M11" s="1">
         <f t="shared" si="1"/>
-        <v>106.32022471910112</v>
+        <v>114.71348314606742</v>
       </c>
       <c r="N11" s="1">
         <f t="shared" si="2"/>
-        <v>4.1575425075467143</v>
+        <v>11.084991462685577</v>
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>1.6515879214368562E-2</v>
+        <v>4.4035239509325599E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -2376,29 +2376,29 @@
         <v>9</v>
       </c>
       <c r="B12">
-        <v>12626</v>
+        <v>12540</v>
       </c>
       <c r="C12">
-        <v>12447</v>
+        <v>14776</v>
       </c>
       <c r="D12">
-        <v>13695</v>
+        <v>15318</v>
       </c>
       <c r="L12" s="1">
         <f t="shared" si="0"/>
-        <v>217.79775280898878</v>
+        <v>239.51685393258427</v>
       </c>
       <c r="M12" s="1">
         <f t="shared" si="1"/>
-        <v>72.599250936329582</v>
+        <v>79.838951310861432</v>
       </c>
       <c r="N12" s="1">
         <f t="shared" si="2"/>
-        <v>3.7911331733007572</v>
+        <v>8.2728554943084838</v>
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>1.5060314467540673E-2</v>
+        <v>3.2864001234842226E-2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -2406,29 +2406,29 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>7937</v>
+        <v>7757</v>
       </c>
       <c r="C13">
-        <v>7773</v>
+        <v>9548</v>
       </c>
       <c r="D13">
-        <v>8756</v>
+        <v>9743</v>
       </c>
       <c r="L13" s="1">
         <f t="shared" si="0"/>
-        <v>137.44943820224719</v>
+        <v>151.95505617977528</v>
       </c>
       <c r="M13" s="1">
         <f t="shared" si="1"/>
-        <v>45.81647940074906</v>
+        <v>50.651685393258425</v>
       </c>
       <c r="N13" s="1">
         <f t="shared" si="2"/>
-        <v>2.9585164372234294</v>
+        <v>6.1498689021964319</v>
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>1.1752736151755908E-2</v>
+        <v>2.4430415753659354E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -2436,29 +2436,29 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>4327</v>
+        <v>4313</v>
       </c>
       <c r="C14">
-        <v>4324</v>
+        <v>5514</v>
       </c>
       <c r="D14">
-        <v>5200</v>
+        <v>5627</v>
       </c>
       <c r="L14" s="1">
         <f t="shared" si="0"/>
-        <v>77.81460674157303</v>
+        <v>86.82022471910112</v>
       </c>
       <c r="M14" s="1">
         <f t="shared" si="1"/>
-        <v>25.938202247191011</v>
+        <v>28.940074906367041</v>
       </c>
       <c r="N14" s="1">
         <f t="shared" si="2"/>
-        <v>2.8364889808827671</v>
+        <v>4.0910848867048966</v>
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>1.126798086035463E-2</v>
+        <v>1.625187565055523E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -2466,29 +2466,29 @@
         <v>12</v>
       </c>
       <c r="B15">
-        <v>2151</v>
+        <v>2341</v>
       </c>
       <c r="C15">
-        <v>2312</v>
+        <v>2859</v>
       </c>
       <c r="D15">
-        <v>2722</v>
+        <v>2711</v>
       </c>
       <c r="L15" s="1">
         <f t="shared" si="0"/>
-        <v>40.365168539325843</v>
+        <v>44.443820224719104</v>
       </c>
       <c r="M15" s="1">
         <f t="shared" si="1"/>
-        <v>13.455056179775282</v>
+        <v>14.814606741573034</v>
       </c>
       <c r="N15" s="1">
         <f t="shared" si="2"/>
-        <v>1.6539863969018065</v>
+        <v>1.4989370471030068</v>
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>6.570477512581864E-3</v>
+        <v>5.9545424189790756E-3</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -2496,29 +2496,29 @@
         <v>13</v>
       </c>
       <c r="B16">
-        <v>860</v>
+        <v>1186</v>
       </c>
       <c r="C16">
-        <v>1176</v>
+        <v>1468</v>
       </c>
       <c r="D16">
-        <v>1234</v>
+        <v>1321</v>
       </c>
       <c r="L16" s="1">
         <f t="shared" si="0"/>
-        <v>18.370786516853933</v>
+        <v>22.331460674157302</v>
       </c>
       <c r="M16" s="1">
         <f t="shared" si="1"/>
-        <v>6.1235955056179776</v>
+        <v>7.4438202247191008</v>
       </c>
       <c r="N16" s="1">
         <f t="shared" si="2"/>
-        <v>1.1308194739842774</v>
+        <v>0.79237385827102103</v>
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>4.4921916761353209E-3</v>
+        <v>3.1477130810021758E-3</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -2526,29 +2526,29 @@
         <v>14</v>
       </c>
       <c r="B17">
-        <v>295</v>
+        <v>485</v>
       </c>
       <c r="C17">
-        <v>510</v>
+        <v>635</v>
       </c>
       <c r="D17">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="L17" s="1">
         <f t="shared" si="0"/>
-        <v>7.5056179775280896</v>
+        <v>9.4438202247191008</v>
       </c>
       <c r="M17" s="1">
         <f t="shared" si="1"/>
-        <v>2.5018726591760299</v>
+        <v>3.1479400749063671</v>
       </c>
       <c r="N17" s="1">
         <f t="shared" si="2"/>
-        <v>0.7337933199829676</v>
+        <v>0.42136079881629923</v>
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>2.915001306457003E-3</v>
+        <v>1.6738599897145267E-3</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -2556,29 +2556,29 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>75</v>
+        <v>149</v>
       </c>
       <c r="C18">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="D18">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="L18" s="1">
         <f t="shared" si="0"/>
-        <v>2.5561797752808988</v>
+        <v>3.4550561797752808</v>
       </c>
       <c r="M18" s="1">
         <f t="shared" si="1"/>
-        <v>0.85205992509363293</v>
+        <v>1.151685393258427</v>
       </c>
       <c r="N18" s="1">
         <f t="shared" si="2"/>
-        <v>0.37304950104197293</v>
+        <v>0.31745301560868916</v>
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>1.4819428758709949E-3</v>
+        <v>1.2610852811518146E-3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -2586,29 +2586,29 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L19" s="1">
         <f t="shared" si="0"/>
-        <v>0.6853932584269663</v>
+        <v>0.9382022471910112</v>
       </c>
       <c r="M19" s="1">
         <f t="shared" si="1"/>
-        <v>0.22846441947565541</v>
+        <v>0.31273408239700373</v>
       </c>
       <c r="N19" s="1">
         <f t="shared" si="2"/>
-        <v>8.9594559654724265E-2</v>
+        <v>0.13545424209756643</v>
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>3.5591528477122575E-4</v>
+        <v>5.380933321779412E-4</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -2619,26 +2619,26 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L20" s="1">
         <f t="shared" si="0"/>
-        <v>5.6179775280898875E-2</v>
+        <v>0.12359550561797752</v>
       </c>
       <c r="M20" s="1">
         <f t="shared" si="1"/>
-        <v>1.8726591760299626E-2</v>
+        <v>4.1198501872659173E-2</v>
       </c>
       <c r="N20" s="1">
         <f t="shared" si="2"/>
-        <v>1.4138266732716759E-2</v>
+        <v>3.6552848868807365E-2</v>
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>5.6164406072630294E-5</v>
+        <v>1.4520655790348713E-4</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -2649,26 +2649,26 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6853932584269662E-2</v>
       </c>
       <c r="M21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.6179775280898875E-3</v>
       </c>
       <c r="N21" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6179775280898875E-3</v>
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.231747194756178E-5</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -2750,29 +2750,29 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>31.099157229065799</v>
+        <v>-4.2485297545790601</v>
       </c>
       <c r="C27">
-        <v>-8.2123914361000008</v>
+        <v>3.5830846056342097E-2</v>
       </c>
       <c r="D27">
-        <v>-22.617888263193802</v>
+        <v>-2.17179437959566</v>
       </c>
       <c r="L27" s="1">
         <f>SUM(B27:K27)/178</f>
-        <v>1.5105479200673874E-3</v>
+        <v>-3.5867939820889767E-2</v>
       </c>
       <c r="M27" s="1">
         <f>AVERAGE(B27:K27)/178</f>
-        <v>5.0351597335579576E-4</v>
+        <v>-1.1955979940296589E-2</v>
       </c>
       <c r="N27" s="1">
         <f>STDEV(B27:K27)/178</f>
-        <v>0.15620330255701861</v>
+        <v>1.2036592723905174E-2</v>
       </c>
       <c r="O27">
         <f>N27/SQRT(2)/178</f>
-        <v>6.2051918248203278E-4</v>
+        <v>4.781548504187643E-5</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -2780,29 +2780,29 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>146.711000978946</v>
+        <v>117.072042703628</v>
       </c>
       <c r="C28">
-        <v>236.90461166202999</v>
+        <v>128.71701687574301</v>
       </c>
       <c r="D28">
-        <v>85.439577959477006</v>
+        <v>125.001994341611</v>
       </c>
       <c r="L28" s="1">
         <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)/178</f>
-        <v>2.6351415202272639</v>
+        <v>2.0830958085448428</v>
       </c>
       <c r="M28" s="1">
         <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)/178</f>
-        <v>0.8783805067424213</v>
+        <v>0.69436526951494759</v>
       </c>
       <c r="N28" s="1">
         <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)/178</f>
-        <v>0.4280412935632214</v>
+        <v>3.3417204132614037E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ref="O28:O46" si="7">N28/SQRT(2)/178</f>
-        <v>1.7003983219461547E-3</v>
+        <v>1.3275017781160957E-4</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -2810,29 +2810,29 @@
         <v>2</v>
       </c>
       <c r="B29">
-        <v>3444.6715555190999</v>
+        <v>3808.7397937774599</v>
       </c>
       <c r="C29">
-        <v>4206.7031668126501</v>
+        <v>3884.1861019134499</v>
       </c>
       <c r="D29">
-        <v>3198.2685959339101</v>
+        <v>3862.6505756378101</v>
       </c>
       <c r="L29" s="1">
         <f t="shared" si="4"/>
-        <v>60.953052349807081</v>
+        <v>64.918968940048998</v>
       </c>
       <c r="M29" s="1">
         <f t="shared" si="5"/>
-        <v>20.317684116602361</v>
+        <v>21.639656313349665</v>
       </c>
       <c r="N29" s="1">
         <f t="shared" si="6"/>
-        <v>2.9535345896443417</v>
+        <v>0.21833507569263805</v>
       </c>
       <c r="O29">
         <f t="shared" si="7"/>
-        <v>1.1732945712396298E-2</v>
+        <v>8.6733827299518261E-4</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -2840,29 +2840,29 @@
         <v>3</v>
       </c>
       <c r="B30">
-        <v>12388.6714820861</v>
+        <v>13560.802768707201</v>
       </c>
       <c r="C30">
-        <v>13536.1890068054</v>
+        <v>13691.1924591064</v>
       </c>
       <c r="D30">
-        <v>11788.2190380096</v>
+        <v>13598.5625839233</v>
       </c>
       <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>211.87123329719719</v>
+        <v>229.49751579627471</v>
       </c>
       <c r="M30" s="1">
         <f t="shared" si="5"/>
-        <v>70.623744432399064</v>
+        <v>76.499171932091571</v>
       </c>
       <c r="N30" s="1">
         <f t="shared" si="6"/>
-        <v>4.9895414220740779</v>
+        <v>0.37691820822279659</v>
       </c>
       <c r="O30">
         <f t="shared" si="7"/>
-        <v>1.9821003227863763E-2</v>
+        <v>1.4973113538596775E-3</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -2870,29 +2870,29 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>22040.0558166503</v>
+        <v>23934.875442504799</v>
       </c>
       <c r="C31">
-        <v>22261.193485259999</v>
+        <v>23960.623352050701</v>
       </c>
       <c r="D31">
-        <v>21300.1027116775</v>
+        <v>23936.0577697753</v>
       </c>
       <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>368.54692142465058</v>
+        <v>403.54807058612812</v>
       </c>
       <c r="M31" s="1">
         <f t="shared" si="5"/>
-        <v>122.84897380821685</v>
+        <v>134.51602352870938</v>
       </c>
       <c r="N31" s="1">
         <f t="shared" si="6"/>
-        <v>2.8277723483440043</v>
+        <v>8.166449305696534E-2</v>
       </c>
       <c r="O31">
         <f t="shared" si="7"/>
-        <v>1.1233353950369961E-2</v>
+        <v>3.2441301585810065E-4</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -2900,29 +2900,29 @@
         <v>5</v>
       </c>
       <c r="B32">
-        <v>27950.774330139098</v>
+        <v>29894.231887817299</v>
       </c>
       <c r="C32">
-        <v>28072.878791808998</v>
+        <v>29800.624496459899</v>
       </c>
       <c r="D32">
-        <v>27606.099395751899</v>
+        <v>29858.313079833901</v>
       </c>
       <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>469.83007032415725</v>
+        <v>503.10769361860167</v>
       </c>
       <c r="M32" s="1">
         <f t="shared" si="5"/>
-        <v>156.61002344138575</v>
+        <v>167.70256453953388</v>
       </c>
       <c r="N32" s="1">
         <f t="shared" si="6"/>
-        <v>1.3599554341469959</v>
+        <v>0.26530178537601457</v>
       </c>
       <c r="O32">
         <f t="shared" si="7"/>
-        <v>5.4024365707687413E-3</v>
+        <v>1.0539139971925725E-3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -2930,29 +2930,29 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>29053.123413085901</v>
+        <v>30678.334304809501</v>
       </c>
       <c r="C33">
-        <v>28661.5762100219</v>
+        <v>30414.3908233642</v>
       </c>
       <c r="D33">
-        <v>29070.272092819199</v>
+        <v>30667.733032226501</v>
       </c>
       <c r="L33" s="1">
         <f t="shared" si="4"/>
-        <v>487.55602087599442</v>
+        <v>515.50819191236064</v>
       </c>
       <c r="M33" s="1">
         <f t="shared" si="5"/>
-        <v>162.51867362533147</v>
+        <v>171.83606397078688</v>
       </c>
       <c r="N33" s="1">
         <f t="shared" si="6"/>
-        <v>1.2987042211440147</v>
+        <v>0.83944699014213864</v>
       </c>
       <c r="O33">
         <f t="shared" si="7"/>
-        <v>5.1591155141939684E-3</v>
+        <v>3.3347115684052978E-3</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -2960,29 +2960,29 @@
         <v>7</v>
       </c>
       <c r="B34">
-        <v>26083.9460830688</v>
+        <v>27128.835372924801</v>
       </c>
       <c r="C34">
-        <v>24338.141082763599</v>
+        <v>26631.6961822509</v>
       </c>
       <c r="D34">
-        <v>26433.042987823399</v>
+        <v>27049.617187</v>
       </c>
       <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>431.77039412166181</v>
+        <v>453.9895996751444</v>
       </c>
       <c r="M34" s="1">
         <f t="shared" si="5"/>
-        <v>143.9234647072206</v>
+        <v>151.32986655838147</v>
       </c>
       <c r="N34" s="1">
         <f t="shared" si="6"/>
-        <v>6.3054624684104565</v>
+        <v>1.5006080738331664</v>
       </c>
       <c r="O34">
         <f t="shared" si="7"/>
-        <v>2.5048512752417419E-2</v>
+        <v>5.9611805893860408E-3</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -2990,29 +2990,29 @@
         <v>8</v>
       </c>
       <c r="B35">
-        <v>21306.558612823399</v>
+        <v>21849.845916748</v>
       </c>
       <c r="C35">
-        <v>19476.480865478501</v>
+        <v>20933.356079101501</v>
       </c>
       <c r="D35">
-        <v>21588.3894138336</v>
+        <v>21614.6115722656</v>
       </c>
       <c r="L35" s="1">
         <f t="shared" si="4"/>
-        <v>350.40128591087364</v>
+        <v>361.78546948379272</v>
       </c>
       <c r="M35" s="1">
         <f t="shared" si="5"/>
-        <v>116.80042863695786</v>
+        <v>120.59515649459756</v>
       </c>
       <c r="N35" s="1">
         <f t="shared" si="6"/>
-        <v>6.4418267989917251</v>
+        <v>2.6741001259698991</v>
       </c>
       <c r="O35">
         <f t="shared" si="7"/>
-        <v>2.5590221420203813E-2</v>
+        <v>1.0622889509242228E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -3020,29 +3020,29 @@
         <v>9</v>
       </c>
       <c r="B36">
-        <v>15794.261730194001</v>
+        <v>15686.530799865701</v>
       </c>
       <c r="C36">
-        <v>12915.852826595299</v>
+        <v>14933.45413208</v>
       </c>
       <c r="D36">
-        <v>15809.5500259399</v>
+        <v>15384.835109710601</v>
       </c>
       <c r="L36" s="1">
         <f t="shared" si="4"/>
-        <v>250.11047518387193</v>
+        <v>258.45404517784436</v>
       </c>
       <c r="M36" s="1">
         <f t="shared" si="5"/>
-        <v>83.370158394623971</v>
+        <v>86.151348392614793</v>
       </c>
       <c r="N36" s="1">
         <f t="shared" si="6"/>
-        <v>9.361129439387069</v>
+        <v>2.1292672707575409</v>
       </c>
       <c r="O36">
         <f t="shared" si="7"/>
-        <v>3.7187180371660786E-2</v>
+        <v>8.4585355399507279E-3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -3050,29 +3050,29 @@
         <v>10</v>
       </c>
       <c r="B37">
-        <v>10644.5937480926</v>
+        <v>10370.125782012899</v>
       </c>
       <c r="C37">
-        <v>7793.3031384423302</v>
+        <v>9778.2475776672309</v>
       </c>
       <c r="D37">
-        <v>10560.6662306785</v>
+        <v>10363.021442413299</v>
       </c>
       <c r="L37" s="1">
         <f t="shared" si="4"/>
-        <v>162.9132759394013</v>
+        <v>171.4123303488395</v>
       </c>
       <c r="M37" s="1">
         <f t="shared" si="5"/>
-        <v>54.304425313133763</v>
+        <v>57.137443449613173</v>
       </c>
       <c r="N37" s="1">
         <f t="shared" si="6"/>
-        <v>9.1152155585688845</v>
+        <v>1.9083638633472333</v>
       </c>
       <c r="O37">
         <f t="shared" si="7"/>
-        <v>3.6210285019332482E-2</v>
+        <v>7.5809945435066656E-3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -3080,29 +3080,29 @@
         <v>11</v>
       </c>
       <c r="B38">
-        <v>6420.23438262939</v>
+        <v>6087.6916923522904</v>
       </c>
       <c r="C38">
-        <v>4104.40863767266</v>
+        <v>5752.4388980865397</v>
       </c>
       <c r="D38">
-        <v>6255.6291728019696</v>
+        <v>6151.8161411285</v>
       </c>
       <c r="L38" s="1">
         <f t="shared" si="4"/>
-        <v>94.271192096090004</v>
+        <v>101.07835242453557</v>
       </c>
       <c r="M38" s="1">
         <f t="shared" si="5"/>
-        <v>31.423730698696669</v>
+        <v>33.692784141511858</v>
       </c>
       <c r="N38" s="1">
         <f t="shared" si="6"/>
-        <v>7.259263797722844</v>
+        <v>1.2049406352104697</v>
       </c>
       <c r="O38">
         <f t="shared" si="7"/>
-        <v>2.8837498077482208E-2</v>
+        <v>4.7866387308120734E-3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -3110,29 +3110,29 @@
         <v>12</v>
       </c>
       <c r="B39">
-        <v>3581.80079650878</v>
+        <v>3149.34777164459</v>
       </c>
       <c r="C39">
-        <v>2279.6038673743601</v>
+        <v>3114.3934574127102</v>
       </c>
       <c r="D39">
-        <v>3325.8689546585001</v>
+        <v>3374.0922164916901</v>
       </c>
       <c r="L39" s="1">
         <f t="shared" si="4"/>
-        <v>51.613896733379995</v>
+        <v>54.145131716567356</v>
       </c>
       <c r="M39" s="1">
         <f t="shared" si="5"/>
-        <v>17.204632244460001</v>
+        <v>18.048377238855785</v>
       </c>
       <c r="N39" s="1">
         <f t="shared" si="6"/>
-        <v>3.8759217679603966</v>
+        <v>0.79176723693877349</v>
       </c>
       <c r="O39">
         <f t="shared" si="7"/>
-        <v>1.5397138008277238E-2</v>
+        <v>3.1453032716895653E-3</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -3140,29 +3140,29 @@
         <v>13</v>
       </c>
       <c r="B40">
-        <v>1902.3637490272499</v>
+        <v>1558.22906541824</v>
       </c>
       <c r="C40">
-        <v>762.91860242933001</v>
+        <v>1564.20036458969</v>
       </c>
       <c r="D40">
-        <v>1735.1195330619801</v>
+        <v>1718.9412202834999</v>
       </c>
       <c r="L40" s="1">
         <f t="shared" si="4"/>
-        <v>24.721358901789664</v>
+        <v>27.19871151849118</v>
       </c>
       <c r="M40" s="1">
         <f t="shared" si="5"/>
-        <v>8.2404529672632201</v>
+        <v>9.0662371728303945</v>
       </c>
       <c r="N40" s="1">
         <f t="shared" si="6"/>
-        <v>3.4566776434879292</v>
+        <v>0.5118672562035339</v>
       </c>
       <c r="O40">
         <f t="shared" si="7"/>
-        <v>1.3731686528574436E-2</v>
+        <v>2.0333977973532062E-3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -3170,29 +3170,29 @@
         <v>14</v>
       </c>
       <c r="B41">
-        <v>966.35651683807305</v>
+        <v>651.49163889884903</v>
       </c>
       <c r="C41">
-        <v>214.04602015390901</v>
+        <v>694.84124779701199</v>
       </c>
       <c r="D41">
-        <v>774.89726537466004</v>
+        <v>777.58297610282</v>
       </c>
       <c r="L41" s="1">
         <f t="shared" si="4"/>
-        <v>10.984830350374393</v>
+        <v>11.932111588756634</v>
       </c>
       <c r="M41" s="1">
         <f t="shared" si="5"/>
-        <v>3.661610116791465</v>
+        <v>3.9773705295855444</v>
       </c>
       <c r="N41" s="1">
         <f t="shared" si="6"/>
-        <v>2.1965045028845829</v>
+        <v>0.35990449217899845</v>
       </c>
       <c r="O41">
         <f t="shared" si="7"/>
-        <v>8.7256361173959265E-3</v>
+        <v>1.4297241966251153E-3</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -3200,29 +3200,29 @@
         <v>15</v>
       </c>
       <c r="B42">
-        <v>353.62241268157902</v>
+        <v>247.47126901149699</v>
       </c>
       <c r="C42">
-        <v>108.838503677397</v>
+        <v>253.52532696723901</v>
       </c>
       <c r="D42">
-        <v>337.11208680272</v>
+        <v>293.08487010002102</v>
       </c>
       <c r="L42" s="1">
         <f t="shared" si="4"/>
-        <v>4.4919831638297536</v>
+        <v>4.4611318319031295</v>
       </c>
       <c r="M42" s="1">
         <f t="shared" si="5"/>
-        <v>1.4973277212765845</v>
+        <v>1.4870439439677099</v>
       </c>
       <c r="N42" s="1">
         <f t="shared" si="6"/>
-        <v>0.7685911429601282</v>
+        <v>0.13917416676888522</v>
       </c>
       <c r="O42">
         <f t="shared" si="7"/>
-        <v>3.0532360064439651E-3</v>
+        <v>5.5287077015879883E-4</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -3230,29 +3230,29 @@
         <v>16</v>
       </c>
       <c r="B43">
-        <v>212.280888468027</v>
+        <v>74.102552503346999</v>
       </c>
       <c r="C43">
-        <v>114.857654675841</v>
+        <v>79.874055236577902</v>
       </c>
       <c r="D43">
-        <v>104.009699162095</v>
+        <v>95.899480611085806</v>
       </c>
       <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>2.4221811365503538</v>
+        <v>1.4037982491629815</v>
       </c>
       <c r="M43" s="1">
         <f t="shared" si="5"/>
-        <v>0.80739371218345135</v>
+        <v>0.4679327497209938</v>
       </c>
       <c r="N43" s="1">
         <f t="shared" si="6"/>
-        <v>0.33497796620657994</v>
+        <v>6.3445457025441923E-2</v>
       </c>
       <c r="O43">
         <f t="shared" si="7"/>
-        <v>1.330703322768263E-3</v>
+        <v>2.5203771291106551E-4</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -3260,29 +3260,29 @@
         <v>17</v>
       </c>
       <c r="B44">
-        <v>-1.23545228689908</v>
+        <v>11.379781335592201</v>
       </c>
       <c r="C44">
-        <v>10.3065629955381</v>
+        <v>12.5552486628293</v>
       </c>
       <c r="D44">
-        <v>13.169974405318399</v>
+        <v>15.4917652457952</v>
       </c>
       <c r="L44" s="1">
         <f t="shared" si="4"/>
-        <v>0.1249499163705473</v>
+        <v>0.22149884968661065</v>
       </c>
       <c r="M44" s="1">
         <f t="shared" si="5"/>
-        <v>4.1649972123515767E-2</v>
+        <v>7.383294989553689E-2</v>
       </c>
       <c r="N44" s="1">
         <f t="shared" si="6"/>
-        <v>4.2842592502417814E-2</v>
+        <v>1.1898372587768703E-2</v>
       </c>
       <c r="O44">
         <f t="shared" si="7"/>
-        <v>1.7019262742736839E-4</v>
+        <v>4.7266404167951559E-5</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -3290,29 +3290,29 @@
         <v>18</v>
       </c>
       <c r="B45">
-        <v>-16.0716727189719</v>
+        <v>7.1501958705484796</v>
       </c>
       <c r="C45">
-        <v>3.9410561285912902</v>
+        <v>1.18356829881668</v>
       </c>
       <c r="D45">
-        <v>-9.5222407318651605</v>
+        <v>0.40572975389659399</v>
       </c>
       <c r="L45" s="1">
         <f t="shared" si="4"/>
-        <v>-0.12164526585531332</v>
+        <v>4.9098280467762663E-2</v>
       </c>
       <c r="M45" s="1">
         <f t="shared" si="5"/>
-        <v>-4.0548421951771108E-2</v>
+        <v>1.6366093489254222E-2</v>
       </c>
       <c r="N45" s="1">
         <f t="shared" si="6"/>
-        <v>5.7322862295682474E-2</v>
+        <v>2.0729943839380365E-2</v>
       </c>
       <c r="O45">
         <f t="shared" si="7"/>
-        <v>2.2771564408033564E-4</v>
+        <v>8.2349909339562641E-5</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -3320,29 +3320,29 @@
         <v>19</v>
       </c>
       <c r="B46">
-        <v>-26.834709789603899</v>
+        <v>10.160134799778399</v>
       </c>
       <c r="C46">
-        <v>-3.5405034869909202</v>
+        <v>0.77722753852140103</v>
       </c>
       <c r="D46">
-        <v>55.746890641748898</v>
+        <v>-1.08441925235092</v>
       </c>
       <c r="L46" s="1">
         <f t="shared" si="4"/>
-        <v>0.14253751328738246</v>
+        <v>5.5353612842409444E-2</v>
       </c>
       <c r="M46" s="1">
         <f t="shared" si="5"/>
-        <v>4.7512504429127481E-2</v>
+        <v>1.845120428080315E-2</v>
       </c>
       <c r="N46" s="1">
         <f t="shared" si="6"/>
-        <v>0.23920246023513278</v>
+        <v>3.3859263096252791E-2</v>
       </c>
       <c r="O46">
         <f t="shared" si="7"/>
-        <v>9.5023416690319027E-4</v>
+        <v>1.3450626146820093E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3351,15 +3351,15 @@
       </c>
       <c r="B50">
         <f>SUM(B27:B46)</f>
-        <v>182276.98384122495</v>
+        <v>188822.16968395145</v>
       </c>
       <c r="C50">
         <f t="shared" ref="C50:D50" si="8">SUM(C27:C46)</f>
-        <v>169086.39119583525</v>
+        <v>185630.31344630604</v>
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
-        <v>180009.46351834093</v>
+        <v>188884.46253321334</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3368,15 +3368,15 @@
       </c>
       <c r="B51">
         <f>SUM(B3:B22)</f>
-        <v>167692</v>
+        <v>166536</v>
       </c>
       <c r="C51">
         <f t="shared" ref="C51:D51" si="9">SUM(C3:C22)</f>
-        <v>169601</v>
+        <v>188269</v>
       </c>
       <c r="D51">
         <f t="shared" si="9"/>
-        <v>176415</v>
+        <v>190748</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3385,15 +3385,15 @@
       </c>
       <c r="B52">
         <f>B50-B51</f>
-        <v>14584.983841224952</v>
+        <v>22286.169683951448</v>
       </c>
       <c r="C52">
         <f t="shared" ref="C52:D52" si="10">C50-C51</f>
-        <v>-514.60880416474538</v>
+        <v>-2638.6865536939586</v>
       </c>
       <c r="D52">
         <f t="shared" si="10"/>
-        <v>3594.4635183409264</v>
+        <v>-1863.5374667866563</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3402,15 +3402,15 @@
       </c>
       <c r="B53">
         <f>B52/B51</f>
-        <v>8.697483386938526E-2</v>
+        <v>0.13382193450035695</v>
       </c>
       <c r="C53">
         <f t="shared" ref="C53:D53" si="11">C52/C51</f>
-        <v>-3.0342321340366234E-3</v>
+        <v>-1.4015512663762799E-2</v>
       </c>
       <c r="D53">
         <f t="shared" si="11"/>
-        <v>2.0375044743025969E-2</v>
+        <v>-9.7696304379949264E-3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3419,15 +3419,15 @@
       </c>
       <c r="B54">
         <f>(B50-B51)^2/B51</f>
-        <v>1268.5265465782086</v>
+        <v>2982.3783397095917</v>
       </c>
       <c r="C54">
         <f t="shared" ref="C54:D54" si="12">(C50-C51)^2/C51</f>
-        <v>1.5614425700548302</v>
+        <v>36.982544808998298</v>
       </c>
       <c r="D54">
         <f t="shared" si="12"/>
-        <v>73.23735501337093</v>
+        <v>18.206072357862876</v>
       </c>
     </row>
   </sheetData>

--- a/csv_files/2d_1z/target_vs_output.xlsx
+++ b/csv_files/2d_1z/target_vs_output.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\particles_nir_repo_new\csv_files\2d_1z\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ניר צדוק\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17514447-D4DD-45AB-B1CF-FDFA420FD501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -52,9 +53,6 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Std/sqrt(2)</t>
-  </si>
-  <si>
     <t>Nout</t>
   </si>
   <si>
@@ -69,11 +67,14 @@
   <si>
     <t>chisquare</t>
   </si>
+  <si>
+    <t>Std/sqrt(3)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +129,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -170,11 +177,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -189,10 +197,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="טוב" xfId="1" builtinId="26"/>
+    <cellStyle name="ניטראלי" xfId="3" builtinId="28"/>
+    <cellStyle name="רע" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -208,9 +216,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="he-IL"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -248,7 +256,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -315,58 +322,58 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8038997811179402E-4</c:v>
+                    <c:v>1.0271210858129936E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.733930175040114E-3</c:v>
+                    <c:v>3.2028238307024767E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3025305922920406E-2</c:v>
+                    <c:v>0.11156422230372011</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5775108489284982E-2</c:v>
+                    <c:v>0.19433653845995283</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.7753843576959441E-2</c:v>
+                    <c:v>0.24274713567106976</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.2554854619723956E-2</c:v>
+                    <c:v>0.24804336665757695</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9034763458053597E-2</c:v>
+                    <c:v>0.21555937830128932</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.4035239509325599E-2</c:v>
+                    <c:v>0.17083577856927737</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.2864001234842226E-2</c:v>
+                    <c:v>0.12027057702373303</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.4430415753659354E-2</c:v>
+                    <c:v>7.8432734580657845E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.625187565055523E-2</c:v>
+                    <c:v>4.5590391853027427E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.9545424189790756E-3</c:v>
+                    <c:v>2.381346904262038E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.1477130810021758E-3</c:v>
+                    <c:v>1.2179033842795173E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.6738599897145267E-3</c:v>
+                    <c:v>5.3865458183023473E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.2610852811518146E-3</c:v>
+                    <c:v>2.0922000092705754E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>5.380933321779412E-4</c:v>
+                    <c:v>6.3626325809135978E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4520655790348713E-4</c:v>
+                    <c:v>1.2128336310191979E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.231747194756178E-5</c:v>
+                    <c:v>1.3972947620993976E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -381,61 +388,61 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.8038997811179402E-4</c:v>
+                    <c:v>1.0271210858129936E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.733930175040114E-3</c:v>
+                    <c:v>3.2028238307024767E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.3025305922920406E-2</c:v>
+                    <c:v>0.11156422230372011</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.5775108489284982E-2</c:v>
+                    <c:v>0.19433653845995283</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>3.7753843576959441E-2</c:v>
+                    <c:v>0.24274713567106976</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>4.2554854619723956E-2</c:v>
+                    <c:v>0.24804336665757695</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>4.9034763458053597E-2</c:v>
+                    <c:v>0.21555937830128932</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>4.4035239509325599E-2</c:v>
+                    <c:v>0.17083577856927737</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>3.2864001234842226E-2</c:v>
+                    <c:v>0.12027057702373303</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>2.4430415753659354E-2</c:v>
+                    <c:v>7.8432734580657845E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>1.625187565055523E-2</c:v>
+                    <c:v>4.5590391853027427E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>5.9545424189790756E-3</c:v>
+                    <c:v>2.381346904262038E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3.1477130810021758E-3</c:v>
+                    <c:v>1.2179033842795173E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.6738599897145267E-3</c:v>
+                    <c:v>5.3865458183023473E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>1.2610852811518146E-3</c:v>
+                    <c:v>2.0922000092705754E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>5.380933321779412E-4</c:v>
+                    <c:v>6.3626325809135978E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>1.4520655790348713E-4</c:v>
+                    <c:v>1.2128336310191979E-4</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>2.231747194756178E-5</c:v>
+                    <c:v>1.3972947620993976E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>0</c:v>
+                    <c:v>1.5483458228746566E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -464,66 +471,66 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71161048689138584</c:v>
+                  <c:v>0.55730337078651682</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.99625468164794</c:v>
+                  <c:v>17.615730337078652</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.052434456928836</c:v>
+                  <c:v>61.438202247191015</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>135.36891385767791</c:v>
+                  <c:v>107.09887640449438</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.26029962546815</c:v>
+                  <c:v>133.7067415730337</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>169.8932584269663</c:v>
+                  <c:v>136.62022471910115</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>148.29026217228466</c:v>
+                  <c:v>118.80337078651685</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>114.71348314606742</c:v>
+                  <c:v>94.023595505617976</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.838951310861432</c:v>
+                  <c:v>66.067415730337075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.651685393258425</c:v>
+                  <c:v>42.857303370786518</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.940074906367041</c:v>
+                  <c:v>24.871910112359551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.814606741573034</c:v>
+                  <c:v>12.791011235955057</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.4438202247191008</c:v>
+                  <c:v>6.4797752808988767</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1479400749063671</c:v>
+                  <c:v>2.898876404494382</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.151685393258427</c:v>
+                  <c:v>1.104494382022472</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.31273408239700373</c:v>
+                  <c:v>0.35280898876404493</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1198501872659173E-2</c:v>
+                  <c:v>5.955056179775281E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.6179775280898875E-3</c:v>
+                  <c:v>2.4719101123595509E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>2.134831460674157E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -556,64 +563,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>4.781548504187643E-5</c:v>
+                    <c:v>2.2480522638956979E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3275017781160957E-4</c:v>
+                    <c:v>1.0072626305829041E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6733827299518261E-4</c:v>
+                    <c:v>3.140484710035598E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4973113538596775E-3</c:v>
+                    <c:v>0.11168214345553695</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.2441301585810065E-4</c:v>
+                    <c:v>0.19510052763957803</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0539139971925725E-3</c:v>
+                    <c:v>0.24259083305750451</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3347115684052978E-3</c:v>
+                    <c:v>0.24892100626137911</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5.9611805893860408E-3</c:v>
+                    <c:v>0.21948874506652716</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.0622889509242228E-2</c:v>
+                    <c:v>0.17409302419169731</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.4585355399507279E-3</c:v>
+                    <c:v>0.12425279551429251</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.5809945435066656E-3</c:v>
+                    <c:v>8.2184789932314345E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.7866387308120734E-3</c:v>
+                    <c:v>4.846769390009862E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1453032716895653E-3</c:v>
+                    <c:v>2.6230955192163733E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.0333977973532062E-3</c:v>
+                    <c:v>1.3185987970837258E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.4297241966251153E-3</c:v>
+                    <c:v>5.8294187629119431E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>5.5287077015879883E-4</c:v>
+                    <c:v>2.1962592770265838E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.5203771291106551E-4</c:v>
+                    <c:v>6.2232974504787975E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.7266404167951559E-5</c:v>
+                    <c:v>6.0300260998147664E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>8.2349909339562641E-5</c:v>
+                    <c:v>1.4270743467262621E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3450626146820093E-4</c:v>
+                    <c:v>1.7524956066975833E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -625,64 +632,64 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>4.781548504187643E-5</c:v>
+                    <c:v>2.2480522638956979E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.3275017781160957E-4</c:v>
+                    <c:v>1.0072626305829041E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>8.6733827299518261E-4</c:v>
+                    <c:v>3.140484710035598E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.4973113538596775E-3</c:v>
+                    <c:v>0.11168214345553695</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.2441301585810065E-4</c:v>
+                    <c:v>0.19510052763957803</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.0539139971925725E-3</c:v>
+                    <c:v>0.24259083305750451</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>3.3347115684052978E-3</c:v>
+                    <c:v>0.24892100626137911</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>5.9611805893860408E-3</c:v>
+                    <c:v>0.21948874506652716</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>1.0622889509242228E-2</c:v>
+                    <c:v>0.17409302419169731</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>8.4585355399507279E-3</c:v>
+                    <c:v>0.12425279551429251</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>7.5809945435066656E-3</c:v>
+                    <c:v>8.2184789932314345E-2</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>4.7866387308120734E-3</c:v>
+                    <c:v>4.846769390009862E-2</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>3.1453032716895653E-3</c:v>
+                    <c:v>2.6230955192163733E-2</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>2.0333977973532062E-3</c:v>
+                    <c:v>1.3185987970837258E-2</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>1.4297241966251153E-3</c:v>
+                    <c:v>5.8294187629119431E-3</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>5.5287077015879883E-4</c:v>
+                    <c:v>2.1962592770265838E-3</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>2.5203771291106551E-4</c:v>
+                    <c:v>6.2232974504787975E-4</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>4.7266404167951559E-5</c:v>
+                    <c:v>6.0300260998147664E-5</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>8.2349909339562641E-5</c:v>
+                    <c:v>1.4270743467262621E-4</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>1.3450626146820093E-4</c:v>
+                    <c:v>1.7524956066975833E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -708,69 +715,69 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>-1.1955979940296589E-2</c:v>
+                  <c:v>9.1213890968748284E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.69436526951494759</c:v>
+                  <c:v>0.55964509141578989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21.639656313349665</c:v>
+                  <c:v>17.32402661784301</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.499171932091571</c:v>
+                  <c:v>61.592972903305061</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>134.51602352870938</c:v>
+                  <c:v>107.59912208814291</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>167.70256453953388</c:v>
+                  <c:v>133.79553656417312</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>171.83606397078688</c:v>
+                  <c:v>137.28424512884573</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151.32986655838147</c:v>
+                  <c:v>121.02279137600641</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>120.59515649459756</c:v>
+                  <c:v>95.933558149016079</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>86.151348392614793</c:v>
+                  <c:v>68.402479030308868</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>57.137443449613173</c:v>
+                  <c:v>45.168085072549431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33.692784141511858</c:v>
+                  <c:v>26.594104417522278</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>18.048377238855785</c:v>
+                  <c:v>14.385236108972753</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.0662371728303945</c:v>
+                  <c:v>7.2648204964198193</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.9773705295855444</c:v>
+                  <c:v>3.24136093145006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.4870439439677099</c:v>
+                  <c:v>1.2692770560135975</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.4679327497209938</c:v>
+                  <c:v>0.41830652704399474</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7.383294989553689E-2</c:v>
+                  <c:v>8.7816364586018186E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.6366093489254222E-2</c:v>
+                  <c:v>2.3967860969767135E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.845120428080315E-2</c:v>
+                  <c:v>1.4554227610233802E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-A3FC-4FEB-802D-24F94B35C822}"/>
             </c:ext>
@@ -785,11 +792,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="355169232"/>
-        <c:axId val="355162568"/>
+        <c:axId val="313343800"/>
+        <c:axId val="358657056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355169232"/>
+        <c:axId val="313343800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +843,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -902,7 +908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355162568"/>
+        <c:crossAx val="358657056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -910,7 +916,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355162568"/>
+        <c:axId val="358657056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -957,7 +963,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1024,7 +1029,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355169232"/>
+        <c:crossAx val="313343800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,7 +1082,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1109,14 +1113,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+    <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1727,7 +1731,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,50 +2048,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B2">
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>2</v>
       </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2098,640 +2107,705 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <f>SUM(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <f>AVERAGE(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <f>STDEV(A3:K3)/178</f>
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>N3/SQRT(3)/178</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>105</v>
+      </c>
+      <c r="C4" s="1">
+        <v>141</v>
+      </c>
+      <c r="D4" s="1">
+        <v>123</v>
+      </c>
+      <c r="E4" s="1">
+        <v>126</v>
+      </c>
+      <c r="L4" s="1">
+        <f>SUM(A4:K4)/178</f>
+        <v>2.7865168539325844</v>
+      </c>
+      <c r="M4" s="1">
+        <f>AVERAGE(A4:K4)/178</f>
+        <v>0.55730337078651682</v>
+      </c>
+      <c r="N4" s="1">
+        <f>STDEV(A4:K4)/178</f>
+        <v>0.31666661129530832</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O22" si="0">N4/SQRT(3)/178</f>
+        <v>1.0271210858129936E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3893</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4159</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3843</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3781</v>
+      </c>
+      <c r="L5" s="1">
+        <f>SUM(A5:K5)/178</f>
+        <v>88.078651685393254</v>
+      </c>
+      <c r="M5" s="1">
+        <f>AVERAGE(A5:K5)/178</f>
+        <v>17.615730337078652</v>
+      </c>
+      <c r="N5" s="1">
+        <f>STDEV(A5:K5)/178</f>
+        <v>9.8744674123949441</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="0"/>
+        <v>3.2028238307024767E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13764</v>
+      </c>
+      <c r="C6" s="1">
+        <v>14198</v>
+      </c>
+      <c r="D6" s="1">
+        <v>13213</v>
+      </c>
+      <c r="E6" s="1">
+        <v>13502</v>
+      </c>
+      <c r="L6" s="1">
+        <f>SUM(A6:K6)/178</f>
+        <v>307.19101123595505</v>
+      </c>
+      <c r="M6" s="1">
+        <f>AVERAGE(A6:K6)/178</f>
+        <v>61.438202247191015</v>
+      </c>
+      <c r="N6" s="1">
+        <f>STDEV(A6:K6)/178</f>
+        <v>34.395812437977483</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="0"/>
+        <v>0.11156422230372011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23825</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24591</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23418</v>
+      </c>
+      <c r="E7" s="1">
+        <v>23480</v>
+      </c>
+      <c r="L7" s="1">
+        <f>SUM(A7:K7)/178</f>
+        <v>535.49438202247188</v>
+      </c>
+      <c r="M7" s="1">
+        <f>AVERAGE(A7:K7)/178</f>
+        <v>107.09887640449438</v>
+      </c>
+      <c r="N7" s="1">
+        <f>STDEV(A7:K7)/178</f>
+        <v>59.914934991586868</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="0"/>
+        <v>0.19433653845995283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>30000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30655</v>
+      </c>
+      <c r="D8" s="1">
+        <v>28641</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29698</v>
+      </c>
+      <c r="L8" s="1">
+        <f>SUM(A8:K8)/178</f>
+        <v>668.53370786516859</v>
+      </c>
+      <c r="M8" s="1">
+        <f>AVERAGE(A8:K8)/178</f>
+        <v>133.7067415730337</v>
+      </c>
+      <c r="N8" s="1">
+        <f>STDEV(A8:K8)/178</f>
+        <v>74.840166282591255</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>0.24274713567106976</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B9" s="1">
+        <v>31334</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30843</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29340</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30069</v>
+      </c>
+      <c r="L9" s="1">
+        <f>SUM(A9:K9)/178</f>
+        <v>683.10112359550567</v>
+      </c>
+      <c r="M9" s="1">
+        <f>AVERAGE(A9:K9)/178</f>
+        <v>136.62022471910115</v>
+      </c>
+      <c r="N9" s="1">
+        <f>STDEV(A9:K9)/178</f>
+        <v>76.473021008581952</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.24804336665757695</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1">
+        <v>27087</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26290</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25653</v>
+      </c>
+      <c r="E10" s="1">
+        <v>26698</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(A10:K10)/178</f>
+        <v>594.01685393258424</v>
+      </c>
+      <c r="M10" s="1">
+        <f>AVERAGE(A10:K10)/178</f>
+        <v>118.80337078651685</v>
+      </c>
+      <c r="N10" s="1">
+        <f>STDEV(A10:K10)/178</f>
+        <v>66.4580435573112</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="0"/>
+        <v>0.21555937830128932</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>21725</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19931</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20741</v>
+      </c>
+      <c r="E11" s="1">
+        <v>21276</v>
+      </c>
+      <c r="L11" s="1">
+        <f>SUM(A11:K11)/178</f>
+        <v>470.11797752808991</v>
+      </c>
+      <c r="M11" s="1">
+        <f>AVERAGE(A11:K11)/178</f>
+        <v>94.023595505617976</v>
+      </c>
+      <c r="N11" s="1">
+        <f>STDEV(A11:K11)/178</f>
+        <v>52.66953218539831</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>0.17083577856927737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>15314</v>
+      </c>
+      <c r="C12" s="1">
+        <v>13625</v>
+      </c>
+      <c r="D12" s="1">
+        <v>14999</v>
+      </c>
+      <c r="E12" s="1">
+        <v>14853</v>
+      </c>
+      <c r="L12" s="1">
+        <f>SUM(A12:K12)/178</f>
+        <v>330.33707865168537</v>
+      </c>
+      <c r="M12" s="1">
+        <f>AVERAGE(A12:K12)/178</f>
+        <v>66.067415730337075</v>
+      </c>
+      <c r="N12" s="1">
+        <f>STDEV(A12:K12)/178</f>
+        <v>37.080025510810238</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="0"/>
+        <v>0.12027057702373303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10008</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8486</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10002</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9637</v>
+      </c>
+      <c r="L13" s="1">
+        <f>SUM(A13:K13)/178</f>
+        <v>214.2865168539326</v>
+      </c>
+      <c r="M13" s="1">
+        <f>AVERAGE(A13:K13)/178</f>
+        <v>42.857303370786518</v>
+      </c>
+      <c r="N13" s="1">
+        <f>STDEV(A13:K13)/178</f>
+        <v>24.18120766610696</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>7.8432734580657845E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5679</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4901</v>
+      </c>
+      <c r="D14" s="1">
+        <v>6022</v>
+      </c>
+      <c r="E14" s="1">
+        <v>5523</v>
+      </c>
+      <c r="L14" s="1">
+        <f>SUM(A14:K14)/178</f>
+        <v>124.35955056179775</v>
+      </c>
+      <c r="M14" s="1">
+        <f>AVERAGE(A14:K14)/178</f>
+        <v>24.871910112359551</v>
+      </c>
+      <c r="N14" s="1">
+        <f>STDEV(A14:K14)/178</f>
+        <v>14.055747754702352</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>4.5590391853027427E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2938</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2378</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3279</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2777</v>
+      </c>
+      <c r="L15" s="1">
+        <f>SUM(A15:K15)/178</f>
+        <v>63.955056179775283</v>
+      </c>
+      <c r="M15" s="1">
+        <f>AVERAGE(A15:K15)/178</f>
+        <v>12.791011235955057</v>
+      </c>
+      <c r="N15" s="1">
+        <f>STDEV(A15:K15)/178</f>
+        <v>7.3418126149591005</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>2.381346904262038E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1560</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1214</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1703</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1277</v>
+      </c>
+      <c r="L16" s="1">
+        <f>SUM(A16:K16)/178</f>
+        <v>32.398876404494381</v>
+      </c>
+      <c r="M16" s="1">
+        <f>AVERAGE(A16:K16)/178</f>
+        <v>6.4797752808988767</v>
+      </c>
+      <c r="N16" s="1">
+        <f>STDEV(A16:K16)/178</f>
+        <v>3.7548575617023272</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="0"/>
+        <v>1.2179033842795173E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1">
+        <v>684</v>
+      </c>
+      <c r="C17" s="1">
+        <v>536</v>
+      </c>
+      <c r="D17" s="1">
+        <v>772</v>
+      </c>
+      <c r="E17" s="1">
+        <v>574</v>
+      </c>
+      <c r="L17" s="1">
+        <f>SUM(A17:K17)/178</f>
+        <v>14.49438202247191</v>
+      </c>
+      <c r="M17" s="1">
+        <f>AVERAGE(A17:K17)/178</f>
+        <v>2.898876404494382</v>
+      </c>
+      <c r="N17" s="1">
+        <f>STDEV(A17:K17)/178</f>
+        <v>1.6606992441583264</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>5.3865458183023473E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>15</v>
+      </c>
+      <c r="B18" s="1">
+        <v>309</v>
+      </c>
+      <c r="C18" s="1">
+        <v>179</v>
+      </c>
+      <c r="D18" s="1">
+        <v>279</v>
+      </c>
+      <c r="E18" s="1">
+        <v>201</v>
+      </c>
+      <c r="L18" s="1">
+        <f>SUM(A18:K18)/178</f>
+        <v>5.5224719101123592</v>
+      </c>
+      <c r="M18" s="1">
+        <f>AVERAGE(A18:K18)/178</f>
+        <v>1.104494382022472</v>
+      </c>
+      <c r="N18" s="1">
+        <f>STDEV(A18:K18)/178</f>
+        <v>0.64503581538618293</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>2.0922000092705754E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1">
+        <v>110</v>
+      </c>
+      <c r="C19" s="1">
+        <v>56</v>
+      </c>
+      <c r="D19" s="1">
+        <v>80</v>
+      </c>
+      <c r="E19" s="1">
+        <v>52</v>
+      </c>
+      <c r="L19" s="1">
+        <f>SUM(A19:K19)/178</f>
+        <v>1.7640449438202248</v>
+      </c>
+      <c r="M19" s="1">
+        <f>AVERAGE(A19:K19)/178</f>
+        <v>0.35280898876404493</v>
+      </c>
+      <c r="N19" s="1">
+        <f>STDEV(A19:K19)/178</f>
+        <v>0.19616317162063096</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>6.3626325809135978E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>15</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="L20" s="1">
+        <f>SUM(A20:K20)/178</f>
+        <v>0.29775280898876405</v>
+      </c>
+      <c r="M20" s="1">
+        <f>AVERAGE(A20:K20)/178</f>
+        <v>5.955056179775281E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <f>STDEV(A20:K20)/178</f>
+        <v>3.7392272566952219E-2</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>1.2128336310191979E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
         <v>0</v>
       </c>
-      <c r="B3">
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="C3">
+      <c r="L21" s="1">
+        <f>SUM(A21:K21)/178</f>
+        <v>0.12359550561797752</v>
+      </c>
+      <c r="M21" s="1">
+        <f>AVERAGE(A21:K21)/178</f>
+        <v>2.4719101123595509E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <f>STDEV(A21:K21)/178</f>
+        <v>4.3079302275687223E-2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>1.3972947620993976E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="L3" s="1">
-        <f>SUM(B3:K3)/178</f>
+      <c r="D22" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="1">
-        <f>AVERAGE(B3:K3)/178</f>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <f>STDEV(B3:K3)/178</f>
+      <c r="L22" s="1">
+        <f>SUM(A22:K22)/178</f>
+        <v>0.10674157303370786</v>
+      </c>
+      <c r="M22" s="1">
+        <f>AVERAGE(A22:K22)/178</f>
+        <v>2.134831460674157E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <f>STDEV(A22:K22)/178</f>
+        <v>4.7736282665725847E-2</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>1.5483458228746566E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f>N3/SQRT(2)/178</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>136</v>
-      </c>
-      <c r="C4">
-        <v>122</v>
-      </c>
-      <c r="D4">
-        <v>122</v>
-      </c>
-      <c r="L4" s="1">
-        <f t="shared" ref="L4:L22" si="0">SUM(B4:K4)/178</f>
-        <v>2.1348314606741572</v>
-      </c>
-      <c r="M4" s="1">
-        <f t="shared" ref="M4:M22" si="1">AVERAGE(B4:K4)/178</f>
-        <v>0.71161048689138584</v>
-      </c>
-      <c r="N4" s="1">
-        <f t="shared" ref="N4:N22" si="2">STDEV(B4:K4)/178</f>
-        <v>4.5409571734015511E-2</v>
-      </c>
-      <c r="O4">
-        <f t="shared" ref="O4:O22" si="3">N4/SQRT(2)/178</f>
-        <v>1.8038997811179402E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3831</v>
-      </c>
-      <c r="C5">
-        <v>3931</v>
-      </c>
-      <c r="D5">
-        <v>3984</v>
-      </c>
-      <c r="L5" s="1">
-        <f t="shared" si="0"/>
-        <v>65.988764044943821</v>
-      </c>
-      <c r="M5" s="1">
-        <f t="shared" si="1"/>
-        <v>21.99625468164794</v>
-      </c>
-      <c r="N5" s="1">
-        <f t="shared" si="2"/>
-        <v>0.43648226741544377</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="3"/>
-        <v>1.733930175040114E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="B6">
-        <v>13085</v>
-      </c>
-      <c r="C6">
-        <v>13824</v>
-      </c>
-      <c r="D6">
-        <v>14237</v>
-      </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>231.15730337078651</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="1"/>
-        <v>77.052434456928836</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="2"/>
-        <v>3.2788604436649704</v>
-      </c>
-      <c r="O6">
-        <f t="shared" si="3"/>
-        <v>1.3025305922920406E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>22776</v>
-      </c>
-      <c r="C7">
-        <v>24589</v>
-      </c>
-      <c r="D7">
-        <v>24922</v>
-      </c>
-      <c r="L7" s="1">
-        <f t="shared" si="0"/>
-        <v>406.10674157303373</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" si="1"/>
-        <v>135.36891385767791</v>
-      </c>
-      <c r="N7" s="1">
-        <f t="shared" si="2"/>
-        <v>6.4883684234988808</v>
-      </c>
-      <c r="O7">
-        <f t="shared" si="3"/>
-        <v>2.5775108489284982E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>27819</v>
-      </c>
-      <c r="C8">
-        <v>30760</v>
-      </c>
-      <c r="D8">
-        <v>30738</v>
-      </c>
-      <c r="L8" s="1">
-        <f t="shared" si="0"/>
-        <v>501.78089887640448</v>
-      </c>
-      <c r="M8" s="1">
-        <f t="shared" si="1"/>
-        <v>167.26029962546815</v>
-      </c>
-      <c r="N8" s="1">
-        <f t="shared" si="2"/>
-        <v>9.5037755760482163</v>
-      </c>
-      <c r="O8">
-        <f t="shared" si="3"/>
-        <v>3.7753843576959441E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>28046</v>
-      </c>
-      <c r="C9">
-        <v>31189</v>
-      </c>
-      <c r="D9">
-        <v>31488</v>
-      </c>
-      <c r="L9" s="1">
-        <f t="shared" si="0"/>
-        <v>509.67977528089887</v>
-      </c>
-      <c r="M9" s="1">
-        <f>AVERAGE(B9:K9)/178</f>
-        <v>169.8932584269663</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="2"/>
-        <v>10.712334153549159</v>
-      </c>
-      <c r="O9">
-        <f t="shared" si="3"/>
-        <v>4.2554854619723956E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>23889</v>
-      </c>
-      <c r="C10">
-        <v>27310</v>
-      </c>
-      <c r="D10">
-        <v>27988</v>
-      </c>
-      <c r="L10" s="1">
-        <f t="shared" si="0"/>
-        <v>444.87078651685391</v>
-      </c>
-      <c r="M10" s="1">
-        <f t="shared" si="1"/>
-        <v>148.29026217228466</v>
-      </c>
-      <c r="N10" s="1">
-        <f t="shared" si="2"/>
-        <v>12.343521696804217</v>
-      </c>
-      <c r="O10">
-        <f t="shared" si="3"/>
-        <v>4.9034763458053597E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>18149</v>
-      </c>
-      <c r="C11">
-        <v>21385</v>
-      </c>
-      <c r="D11">
-        <v>21723</v>
-      </c>
-      <c r="L11" s="1">
-        <f t="shared" si="0"/>
-        <v>344.14044943820227</v>
-      </c>
-      <c r="M11" s="1">
-        <f t="shared" si="1"/>
-        <v>114.71348314606742</v>
-      </c>
-      <c r="N11" s="1">
-        <f t="shared" si="2"/>
-        <v>11.084991462685577</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="3"/>
-        <v>4.4035239509325599E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>12540</v>
-      </c>
-      <c r="C12">
-        <v>14776</v>
-      </c>
-      <c r="D12">
-        <v>15318</v>
-      </c>
-      <c r="L12" s="1">
-        <f t="shared" si="0"/>
-        <v>239.51685393258427</v>
-      </c>
-      <c r="M12" s="1">
-        <f t="shared" si="1"/>
-        <v>79.838951310861432</v>
-      </c>
-      <c r="N12" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2728554943084838</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="3"/>
-        <v>3.2864001234842226E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <v>7757</v>
-      </c>
-      <c r="C13">
-        <v>9548</v>
-      </c>
-      <c r="D13">
-        <v>9743</v>
-      </c>
-      <c r="L13" s="1">
-        <f t="shared" si="0"/>
-        <v>151.95505617977528</v>
-      </c>
-      <c r="M13" s="1">
-        <f t="shared" si="1"/>
-        <v>50.651685393258425</v>
-      </c>
-      <c r="N13" s="1">
-        <f t="shared" si="2"/>
-        <v>6.1498689021964319</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="3"/>
-        <v>2.4430415753659354E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <v>4313</v>
-      </c>
-      <c r="C14">
-        <v>5514</v>
-      </c>
-      <c r="D14">
-        <v>5627</v>
-      </c>
-      <c r="L14" s="1">
-        <f t="shared" si="0"/>
-        <v>86.82022471910112</v>
-      </c>
-      <c r="M14" s="1">
-        <f t="shared" si="1"/>
-        <v>28.940074906367041</v>
-      </c>
-      <c r="N14" s="1">
-        <f t="shared" si="2"/>
-        <v>4.0910848867048966</v>
-      </c>
-      <c r="O14">
-        <f t="shared" si="3"/>
-        <v>1.625187565055523E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <v>2341</v>
-      </c>
-      <c r="C15">
-        <v>2859</v>
-      </c>
-      <c r="D15">
-        <v>2711</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="0"/>
-        <v>44.443820224719104</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="1"/>
-        <v>14.814606741573034</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>1.4989370471030068</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="3"/>
-        <v>5.9545424189790756E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>1186</v>
-      </c>
-      <c r="C16">
-        <v>1468</v>
-      </c>
-      <c r="D16">
-        <v>1321</v>
-      </c>
-      <c r="L16" s="1">
-        <f t="shared" si="0"/>
-        <v>22.331460674157302</v>
-      </c>
-      <c r="M16" s="1">
-        <f t="shared" si="1"/>
-        <v>7.4438202247191008</v>
-      </c>
-      <c r="N16" s="1">
-        <f t="shared" si="2"/>
-        <v>0.79237385827102103</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="3"/>
-        <v>3.1477130810021758E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17">
-        <v>485</v>
-      </c>
-      <c r="C17">
-        <v>635</v>
-      </c>
-      <c r="D17">
-        <v>561</v>
-      </c>
-      <c r="L17" s="1">
-        <f t="shared" si="0"/>
-        <v>9.4438202247191008</v>
-      </c>
-      <c r="M17" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1479400749063671</v>
-      </c>
-      <c r="N17" s="1">
-        <f t="shared" si="2"/>
-        <v>0.42136079881629923</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="3"/>
-        <v>1.6738599897145267E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>149</v>
-      </c>
-      <c r="C18">
-        <v>262</v>
-      </c>
-      <c r="D18">
-        <v>204</v>
-      </c>
-      <c r="L18" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4550561797752808</v>
-      </c>
-      <c r="M18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.151685393258427</v>
-      </c>
-      <c r="N18" s="1">
-        <f t="shared" si="2"/>
-        <v>0.31745301560868916</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="3"/>
-        <v>1.2610852811518146E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>33</v>
-      </c>
-      <c r="C19">
-        <v>81</v>
-      </c>
-      <c r="D19">
-        <v>53</v>
-      </c>
-      <c r="L19" s="1">
-        <f t="shared" si="0"/>
-        <v>0.9382022471910112</v>
-      </c>
-      <c r="M19" s="1">
-        <f t="shared" si="1"/>
-        <v>0.31273408239700373</v>
-      </c>
-      <c r="N19" s="1">
-        <f t="shared" si="2"/>
-        <v>0.13545424209756643</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="3"/>
-        <v>5.380933321779412E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>14</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="0"/>
-        <v>0.12359550561797752</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="1"/>
-        <v>4.1198501872659173E-2</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="2"/>
-        <v>3.6552848868807365E-2</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="3"/>
-        <v>1.4520655790348713E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="L21" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6853932584269662E-2</v>
-      </c>
-      <c r="M21" s="1">
-        <f t="shared" si="1"/>
-        <v>5.6179775280898875E-3</v>
-      </c>
-      <c r="N21" s="1">
-        <f t="shared" si="2"/>
-        <v>5.6179775280898875E-3</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="3"/>
-        <v>2.231747194756178E-5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="1">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="L26" s="1" t="s">
         <v>1</v>
       </c>
@@ -2742,692 +2816,772 @@
         <v>3</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>0</v>
+      </c>
+      <c r="B27" s="1">
+        <v>-3.4382723271846702E-2</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2.1429664362221899</v>
+      </c>
+      <c r="D27" s="1">
+        <v>-1.2750838547945</v>
+      </c>
+      <c r="E27" s="1">
+        <v>-2.1696228533983199E-2</v>
+      </c>
+      <c r="L27" s="1">
+        <f>SUM(A27:K27)/178</f>
+        <v>4.560694548437415E-3</v>
+      </c>
+      <c r="M27" s="1">
+        <f>AVERAGE(A27:K27)/178</f>
+        <v>9.1213890968748284E-4</v>
+      </c>
+      <c r="N27" s="1">
+        <f>STDEV(A27:K27)/178</f>
+        <v>6.9308585156649029E-3</v>
+      </c>
+      <c r="O27">
+        <f>N27/SQRT(3)/178</f>
+        <v>2.2480522638956979E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>131.12774074077601</v>
+      </c>
+      <c r="C28" s="1">
+        <v>122.850729346275</v>
+      </c>
+      <c r="D28" s="1">
+        <v>122.479491591453</v>
+      </c>
+      <c r="E28" s="1">
+        <v>120.626169681549</v>
+      </c>
+      <c r="L28" s="1">
+        <f>SUM(A28:K28)/178</f>
+        <v>2.7982254570789493</v>
+      </c>
+      <c r="M28" s="1">
+        <f>AVERAGE(A28:K28)/178</f>
+        <v>0.55964509141578989</v>
+      </c>
+      <c r="N28" s="1">
+        <f>STDEV(A28:K28)/178</f>
+        <v>0.31054414938684261</v>
+      </c>
+      <c r="O28">
+        <f t="shared" ref="O28:O46" si="1">N28/SQRT(3)/178</f>
+        <v>1.0072626305829041E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>2</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3917.1812000274599</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3776.5931472778302</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3865.76124000549</v>
+      </c>
+      <c r="E29" s="1">
+        <v>3856.8481025695</v>
+      </c>
+      <c r="L29" s="1">
+        <f>SUM(A29:K29)/178</f>
+        <v>86.620133089215059</v>
+      </c>
+      <c r="M29" s="1">
+        <f>AVERAGE(A29:K29)/178</f>
+        <v>17.32402661784301</v>
+      </c>
+      <c r="N29" s="1">
+        <f>STDEV(A29:K29)/178</f>
+        <v>9.6822727591512674</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>3.140484710035598E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
+        <v>13749.936210632301</v>
+      </c>
+      <c r="C30" s="1">
+        <v>13522.1347351074</v>
+      </c>
+      <c r="D30" s="1">
+        <v>13919.037876129099</v>
+      </c>
+      <c r="E30" s="1">
+        <v>13623.637062072699</v>
+      </c>
+      <c r="L30" s="1">
+        <f>SUM(A30:K30)/178</f>
+        <v>307.96486451652532</v>
+      </c>
+      <c r="M30" s="1">
+        <f>AVERAGE(A30:K30)/178</f>
+        <v>61.592972903305061</v>
+      </c>
+      <c r="N30" s="1">
+        <f>STDEV(A30:K30)/178</f>
+        <v>34.432168123847099</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>0.11168214345553695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>24229.070022583001</v>
+      </c>
+      <c r="C31" s="1">
+        <v>23656.5115737915</v>
+      </c>
+      <c r="D31" s="1">
+        <v>24076.146286010699</v>
+      </c>
+      <c r="E31" s="1">
+        <v>23797.490776062001</v>
+      </c>
+      <c r="L31" s="1">
+        <f>SUM(A31:K31)/178</f>
+        <v>537.99561044071459</v>
+      </c>
+      <c r="M31" s="1">
+        <f>AVERAGE(A31:K31)/178</f>
+        <v>107.59912208814291</v>
+      </c>
+      <c r="N31" s="1">
+        <f>STDEV(A31:K31)/178</f>
+        <v>60.150476709033633</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>0.19510052763957803</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>30033.078338623</v>
+      </c>
+      <c r="C32" s="1">
+        <v>29521.606811523401</v>
+      </c>
+      <c r="D32" s="1">
+        <v>30012.737091064399</v>
+      </c>
+      <c r="E32" s="1">
+        <v>29505.605300903298</v>
+      </c>
+      <c r="L32" s="1">
+        <f>SUM(A32:K32)/178</f>
+        <v>668.97768282086565</v>
+      </c>
+      <c r="M32" s="1">
+        <f>AVERAGE(A32:K32)/178</f>
+        <v>133.79553656417312</v>
+      </c>
+      <c r="N32" s="1">
+        <f>STDEV(A32:K32)/178</f>
+        <v>74.79197739847821</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>0.24259083305750451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>-4.2485297545790601</v>
-      </c>
-      <c r="C27">
-        <v>3.5830846056342097E-2</v>
-      </c>
-      <c r="D27">
-        <v>-2.17179437959566</v>
-      </c>
-      <c r="L27" s="1">
-        <f>SUM(B27:K27)/178</f>
-        <v>-3.5867939820889767E-2</v>
-      </c>
-      <c r="M27" s="1">
-        <f>AVERAGE(B27:K27)/178</f>
-        <v>-1.1955979940296589E-2</v>
-      </c>
-      <c r="N27" s="1">
-        <f>STDEV(B27:K27)/178</f>
-        <v>1.2036592723905174E-2</v>
-      </c>
-      <c r="O27">
-        <f>N27/SQRT(2)/178</f>
-        <v>4.781548504187643E-5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>117.072042703628</v>
-      </c>
-      <c r="C28">
-        <v>128.71701687574301</v>
-      </c>
-      <c r="D28">
-        <v>125.001994341611</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" ref="L28:L46" si="4">SUM(B28:K28)/178</f>
-        <v>2.0830958085448428</v>
-      </c>
-      <c r="M28" s="1">
-        <f t="shared" ref="M28:M46" si="5">AVERAGE(B28:K28)/178</f>
-        <v>0.69436526951494759</v>
-      </c>
-      <c r="N28" s="1">
-        <f t="shared" ref="N28:N46" si="6">STDEV(B28:K28)/178</f>
-        <v>3.3417204132614037E-2</v>
-      </c>
-      <c r="O28">
-        <f t="shared" ref="O28:O46" si="7">N28/SQRT(2)/178</f>
-        <v>1.3275017781160957E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2</v>
-      </c>
-      <c r="B29">
-        <v>3808.7397937774599</v>
-      </c>
-      <c r="C29">
-        <v>3884.1861019134499</v>
-      </c>
-      <c r="D29">
-        <v>3862.6505756378101</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="4"/>
-        <v>64.918968940048998</v>
-      </c>
-      <c r="M29" s="1">
-        <f t="shared" si="5"/>
-        <v>21.639656313349665</v>
-      </c>
-      <c r="N29" s="1">
-        <f t="shared" si="6"/>
-        <v>0.21833507569263805</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="7"/>
-        <v>8.6733827299518261E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>3</v>
-      </c>
-      <c r="B30">
-        <v>13560.802768707201</v>
-      </c>
-      <c r="C30">
-        <v>13691.1924591064</v>
-      </c>
-      <c r="D30">
-        <v>13598.5625839233</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="4"/>
-        <v>229.49751579627471</v>
-      </c>
-      <c r="M30" s="1">
-        <f t="shared" si="5"/>
-        <v>76.499171932091571</v>
-      </c>
-      <c r="N30" s="1">
-        <f t="shared" si="6"/>
-        <v>0.37691820822279659</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="7"/>
-        <v>1.4973113538596775E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>4</v>
-      </c>
-      <c r="B31">
-        <v>23934.875442504799</v>
-      </c>
-      <c r="C31">
-        <v>23960.623352050701</v>
-      </c>
-      <c r="D31">
-        <v>23936.0577697753</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="4"/>
-        <v>403.54807058612812</v>
-      </c>
-      <c r="M31" s="1">
-        <f t="shared" si="5"/>
-        <v>134.51602352870938</v>
-      </c>
-      <c r="N31" s="1">
-        <f t="shared" si="6"/>
-        <v>8.166449305696534E-2</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="7"/>
-        <v>3.2441301585810065E-4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>5</v>
-      </c>
-      <c r="B32">
-        <v>29894.231887817299</v>
-      </c>
-      <c r="C32">
-        <v>29800.624496459899</v>
-      </c>
-      <c r="D32">
-        <v>29858.313079833901</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="4"/>
-        <v>503.10769361860167</v>
-      </c>
-      <c r="M32" s="1">
-        <f t="shared" si="5"/>
-        <v>167.70256453953388</v>
-      </c>
-      <c r="N32" s="1">
-        <f t="shared" si="6"/>
-        <v>0.26530178537601457</v>
-      </c>
-      <c r="O32">
-        <f t="shared" si="7"/>
-        <v>1.0539139971925725E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33">
+      <c r="B33" s="1">
+        <v>30513.536788940401</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30501.619888305599</v>
+      </c>
+      <c r="D33" s="1">
+        <v>30998.5888061523</v>
+      </c>
+      <c r="E33" s="1">
+        <v>30163.2326812744</v>
+      </c>
+      <c r="L33" s="1">
+        <f>SUM(A33:K33)/178</f>
+        <v>686.42122564422857</v>
+      </c>
+      <c r="M33" s="1">
+        <f>AVERAGE(A33:K33)/178</f>
+        <v>137.28424512884573</v>
+      </c>
+      <c r="N33" s="1">
+        <f>STDEV(A33:K33)/178</f>
+        <v>76.743601725026508</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0.24892100626137911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>26805.3729400634</v>
+      </c>
+      <c r="C34" s="1">
+        <v>27224.248336791901</v>
+      </c>
+      <c r="D34" s="1">
+        <v>27349.9639053344</v>
+      </c>
+      <c r="E34" s="1">
+        <v>26323.699142456</v>
+      </c>
+      <c r="L34" s="1">
+        <f>SUM(A34:K34)/178</f>
+        <v>605.11395688003211</v>
+      </c>
+      <c r="M34" s="1">
+        <f>AVERAGE(A34:K34)/178</f>
+        <v>121.02279137600641</v>
+      </c>
+      <c r="N34" s="1">
+        <f>STDEV(A34:K34)/178</f>
+        <v>67.66948714976688</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>0.21948874506652716</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>20980.657714843699</v>
+      </c>
+      <c r="C35" s="1">
+        <v>21925.229095458901</v>
+      </c>
+      <c r="D35" s="1">
+        <v>21714.519935607899</v>
+      </c>
+      <c r="E35" s="1">
+        <v>20752.460006713802</v>
+      </c>
+      <c r="L35" s="1">
+        <f>SUM(A35:K35)/178</f>
+        <v>479.66779074508037</v>
+      </c>
+      <c r="M35" s="1">
+        <f>AVERAGE(A35:K35)/178</f>
+        <v>95.933558149016079</v>
+      </c>
+      <c r="N35" s="1">
+        <f>STDEV(A35:K35)/178</f>
+        <v>53.673757439514056</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0.17409302419169731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>14818.6447143554</v>
+      </c>
+      <c r="C36" s="1">
+        <v>15891.261215209899</v>
+      </c>
+      <c r="D36" s="1">
+        <v>15465.754310607899</v>
+      </c>
+      <c r="E36" s="1">
+        <v>14693.5460968017</v>
+      </c>
+      <c r="L36" s="1">
+        <f>SUM(A36:K36)/178</f>
+        <v>342.01239515154435</v>
+      </c>
+      <c r="M36" s="1">
+        <f>AVERAGE(A36:K36)/178</f>
+        <v>68.402479030308868</v>
+      </c>
+      <c r="N36" s="1">
+        <f>STDEV(A36:K36)/178</f>
+        <v>38.307763556753322</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0.12425279551429251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1">
+        <v>9710.5399856567292</v>
+      </c>
+      <c r="C37" s="1">
+        <v>10695.803146362299</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10195.179023742599</v>
+      </c>
+      <c r="E37" s="1">
+        <v>9588.0735588073694</v>
+      </c>
+      <c r="L37" s="1">
+        <f>SUM(A37:K37)/178</f>
+        <v>225.84042536274717</v>
+      </c>
+      <c r="M37" s="1">
+        <f>AVERAGE(A37:K37)/178</f>
+        <v>45.168085072549431</v>
+      </c>
+      <c r="N37" s="1">
+        <f>STDEV(A37:K37)/178</f>
+        <v>25.337985255441559</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>8.2184789932314345E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>11</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5707.00756645202</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6449.9686965942301</v>
+      </c>
+      <c r="D38" s="1">
+        <v>5881.8319301605197</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5618.9447383880597</v>
+      </c>
+      <c r="L38" s="1">
+        <f>SUM(A38:K38)/178</f>
+        <v>132.97052208761139</v>
+      </c>
+      <c r="M38" s="1">
+        <f>AVERAGE(A38:K38)/178</f>
+        <v>26.594104417522278</v>
+      </c>
+      <c r="N38" s="1">
+        <f>STDEV(A38:K38)/178</f>
+        <v>14.942834488198718</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>4.846769390009862E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>12</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3074.9941816329901</v>
+      </c>
+      <c r="C39" s="1">
+        <v>3546.20604133605</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3147.0450143814001</v>
+      </c>
+      <c r="E39" s="1">
+        <v>3022.6148996353099</v>
+      </c>
+      <c r="L39" s="1">
+        <f>SUM(A39:K39)/178</f>
+        <v>71.926180544863769</v>
+      </c>
+      <c r="M39" s="1">
+        <f>AVERAGE(A39:K39)/178</f>
+        <v>14.385236108972753</v>
+      </c>
+      <c r="N39" s="1">
+        <f>STDEV(A39:K39)/178</f>
+        <v>8.0871357880524606</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>2.6230955192163733E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>13</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1582.07800292968</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1795.8127841949399</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1549.2520112991299</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1525.5474433898901</v>
+      </c>
+      <c r="L40" s="1">
+        <f>SUM(A40:K40)/178</f>
+        <v>36.3241024820991</v>
+      </c>
+      <c r="M40" s="1">
+        <f>AVERAGE(A40:K40)/178</f>
+        <v>7.2648204964198193</v>
+      </c>
+      <c r="N40" s="1">
+        <f>STDEV(A40:K40)/178</f>
+        <v>4.0653065981998271</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>1.3185987970837258E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>14</v>
+      </c>
+      <c r="B41" s="1">
+        <v>708.38959550857498</v>
+      </c>
+      <c r="C41" s="1">
+        <v>812.19500994682301</v>
+      </c>
+      <c r="D41" s="1">
+        <v>691.915690660476</v>
+      </c>
+      <c r="E41" s="1">
+        <v>658.310932874679</v>
+      </c>
+      <c r="L41" s="1">
+        <f>SUM(A41:K41)/178</f>
+        <v>16.206804657250299</v>
+      </c>
+      <c r="M41" s="1">
+        <f>AVERAGE(A41:K41)/178</f>
+        <v>3.24136093145006</v>
+      </c>
+      <c r="N41" s="1">
+        <f>STDEV(A41:K41)/178</f>
+        <v>1.7972392067206657</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>5.8294187629119431E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>15</v>
+      </c>
+      <c r="B42" s="1">
+        <v>262.16587042808499</v>
+      </c>
+      <c r="C42" s="1">
+        <v>321.13593435287402</v>
+      </c>
+      <c r="D42" s="1">
+        <v>271.947149276733</v>
+      </c>
+      <c r="E42" s="1">
+        <v>259.40762579441002</v>
+      </c>
+      <c r="L42" s="1">
+        <f>SUM(A42:K42)/178</f>
+        <v>6.3463852800679881</v>
+      </c>
+      <c r="M42" s="1">
+        <f>AVERAGE(A42:K42)/178</f>
+        <v>1.2692770560135975</v>
+      </c>
+      <c r="N42" s="1">
+        <f>STDEV(A42:K42)/178</f>
+        <v>0.67711781248400693</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>2.1962592770265838E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>16</v>
+      </c>
+      <c r="B43" s="1">
+        <v>80.313283920288001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>105.907356619834</v>
+      </c>
+      <c r="D43" s="1">
+        <v>84.304980576038304</v>
+      </c>
+      <c r="E43" s="1">
+        <v>85.767187952995002</v>
+      </c>
+      <c r="L43" s="1">
+        <f>SUM(A43:K43)/178</f>
+        <v>2.0915326352199739</v>
+      </c>
+      <c r="M43" s="1">
+        <f>AVERAGE(A43:K43)/178</f>
+        <v>0.41830652704399474</v>
+      </c>
+      <c r="N43" s="1">
+        <f>STDEV(A43:K43)/178</f>
+        <v>0.19186739927220781</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>6.2232974504787975E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>17</v>
+      </c>
+      <c r="B44" s="1">
+        <v>13.3568784371018</v>
+      </c>
+      <c r="C44" s="1">
+        <v>20.6394738554954</v>
+      </c>
+      <c r="D44" s="1">
+        <v>12.3034614026546</v>
+      </c>
+      <c r="E44" s="1">
+        <v>14.856750786304399</v>
+      </c>
+      <c r="L44" s="1">
+        <f>SUM(A44:K44)/178</f>
+        <v>0.43908182293009096</v>
+      </c>
+      <c r="M44" s="1">
+        <f>AVERAGE(A44:K44)/178</f>
+        <v>8.7816364586018186E-2</v>
+      </c>
+      <c r="N44" s="1">
+        <f>STDEV(A44:K44)/178</f>
+        <v>1.8590874605005119E-2</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>6.0300260998147664E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>18</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2.1331625394523099</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-1.79993069451302</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1.33597301226109</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1.6621914058923699</v>
+      </c>
+      <c r="L45" s="1">
+        <f>SUM(A45:K45)/178</f>
+        <v>0.11983930484883568</v>
+      </c>
+      <c r="M45" s="1">
+        <f>AVERAGE(A45:K45)/178</f>
+        <v>2.3967860969767135E-2</v>
+      </c>
+      <c r="N45" s="1">
+        <f>STDEV(A45:K45)/178</f>
+        <v>4.3997421889803288E-2</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>1.4270743467262621E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>19</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5.8535702526569297E-2</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-6.5141480267047802</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.28691965155303401</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0.121955245733261</v>
+      </c>
+      <c r="L46" s="1">
+        <f>SUM(A46:K46)/178</f>
+        <v>7.2771138051169013E-2</v>
+      </c>
+      <c r="M46" s="1">
+        <f>AVERAGE(A46:K46)/178</f>
+        <v>1.4554227610233802E-2</v>
+      </c>
+      <c r="N46" s="1">
+        <f>STDEV(A46:K46)/178</f>
+        <v>5.4030323468977959E-2</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>1.7524956066975833E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>6</v>
       </c>
-      <c r="B33">
-        <v>30678.334304809501</v>
-      </c>
-      <c r="C33">
-        <v>30414.3908233642</v>
-      </c>
-      <c r="D33">
-        <v>30667.733032226501</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="4"/>
-        <v>515.50819191236064</v>
-      </c>
-      <c r="M33" s="1">
-        <f t="shared" si="5"/>
-        <v>171.83606397078688</v>
-      </c>
-      <c r="N33" s="1">
-        <f t="shared" si="6"/>
-        <v>0.83944699014213864</v>
-      </c>
-      <c r="O33">
-        <f t="shared" si="7"/>
-        <v>3.3347115684052978E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B50">
+        <f>SUM(A27:A46)</f>
+        <v>190</v>
+      </c>
+      <c r="C50">
+        <f>SUM(B27:B46)</f>
+        <v>186319.60835129366</v>
+      </c>
+      <c r="D50">
+        <f>SUM(C27:C46)</f>
+        <v>189883.5528637903</v>
+      </c>
+      <c r="E50">
+        <f>SUM(D27:D46)</f>
+        <v>189359.11601281221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>7</v>
       </c>
-      <c r="B34">
-        <v>27128.835372924801</v>
-      </c>
-      <c r="C34">
-        <v>26631.6961822509</v>
-      </c>
-      <c r="D34">
-        <v>27049.617187</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="4"/>
-        <v>453.9895996751444</v>
-      </c>
-      <c r="M34" s="1">
-        <f t="shared" si="5"/>
-        <v>151.32986655838147</v>
-      </c>
-      <c r="N34" s="1">
-        <f t="shared" si="6"/>
-        <v>1.5006080738331664</v>
-      </c>
-      <c r="O34">
-        <f t="shared" si="7"/>
-        <v>5.9611805893860408E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="B51">
+        <f>SUM(A3:A22)</f>
+        <v>190</v>
+      </c>
+      <c r="C51">
+        <f>SUM(B3:B22)</f>
+        <v>188351</v>
+      </c>
+      <c r="D51">
+        <f>SUM(C3:C22)</f>
+        <v>182188</v>
+      </c>
+      <c r="E51">
+        <f>SUM(D3:D22)</f>
+        <v>182125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>8</v>
-      </c>
-      <c r="B35">
-        <v>21849.845916748</v>
-      </c>
-      <c r="C35">
-        <v>20933.356079101501</v>
-      </c>
-      <c r="D35">
-        <v>21614.6115722656</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="4"/>
-        <v>361.78546948379272</v>
-      </c>
-      <c r="M35" s="1">
-        <f t="shared" si="5"/>
-        <v>120.59515649459756</v>
-      </c>
-      <c r="N35" s="1">
-        <f t="shared" si="6"/>
-        <v>2.6741001259698991</v>
-      </c>
-      <c r="O35">
-        <f t="shared" si="7"/>
-        <v>1.0622889509242228E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>9</v>
-      </c>
-      <c r="B36">
-        <v>15686.530799865701</v>
-      </c>
-      <c r="C36">
-        <v>14933.45413208</v>
-      </c>
-      <c r="D36">
-        <v>15384.835109710601</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="4"/>
-        <v>258.45404517784436</v>
-      </c>
-      <c r="M36" s="1">
-        <f t="shared" si="5"/>
-        <v>86.151348392614793</v>
-      </c>
-      <c r="N36" s="1">
-        <f t="shared" si="6"/>
-        <v>2.1292672707575409</v>
-      </c>
-      <c r="O36">
-        <f t="shared" si="7"/>
-        <v>8.4585355399507279E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>10</v>
-      </c>
-      <c r="B37">
-        <v>10370.125782012899</v>
-      </c>
-      <c r="C37">
-        <v>9778.2475776672309</v>
-      </c>
-      <c r="D37">
-        <v>10363.021442413299</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="4"/>
-        <v>171.4123303488395</v>
-      </c>
-      <c r="M37" s="1">
-        <f t="shared" si="5"/>
-        <v>57.137443449613173</v>
-      </c>
-      <c r="N37" s="1">
-        <f t="shared" si="6"/>
-        <v>1.9083638633472333</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="7"/>
-        <v>7.5809945435066656E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>11</v>
-      </c>
-      <c r="B38">
-        <v>6087.6916923522904</v>
-      </c>
-      <c r="C38">
-        <v>5752.4388980865397</v>
-      </c>
-      <c r="D38">
-        <v>6151.8161411285</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="4"/>
-        <v>101.07835242453557</v>
-      </c>
-      <c r="M38" s="1">
-        <f t="shared" si="5"/>
-        <v>33.692784141511858</v>
-      </c>
-      <c r="N38" s="1">
-        <f t="shared" si="6"/>
-        <v>1.2049406352104697</v>
-      </c>
-      <c r="O38">
-        <f t="shared" si="7"/>
-        <v>4.7866387308120734E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>12</v>
-      </c>
-      <c r="B39">
-        <v>3149.34777164459</v>
-      </c>
-      <c r="C39">
-        <v>3114.3934574127102</v>
-      </c>
-      <c r="D39">
-        <v>3374.0922164916901</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="4"/>
-        <v>54.145131716567356</v>
-      </c>
-      <c r="M39" s="1">
-        <f t="shared" si="5"/>
-        <v>18.048377238855785</v>
-      </c>
-      <c r="N39" s="1">
-        <f t="shared" si="6"/>
-        <v>0.79176723693877349</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="7"/>
-        <v>3.1453032716895653E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>13</v>
-      </c>
-      <c r="B40">
-        <v>1558.22906541824</v>
-      </c>
-      <c r="C40">
-        <v>1564.20036458969</v>
-      </c>
-      <c r="D40">
-        <v>1718.9412202834999</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="4"/>
-        <v>27.19871151849118</v>
-      </c>
-      <c r="M40" s="1">
-        <f t="shared" si="5"/>
-        <v>9.0662371728303945</v>
-      </c>
-      <c r="N40" s="1">
-        <f t="shared" si="6"/>
-        <v>0.5118672562035339</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>2.0333977973532062E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41">
-        <v>651.49163889884903</v>
-      </c>
-      <c r="C41">
-        <v>694.84124779701199</v>
-      </c>
-      <c r="D41">
-        <v>777.58297610282</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="4"/>
-        <v>11.932111588756634</v>
-      </c>
-      <c r="M41" s="1">
-        <f t="shared" si="5"/>
-        <v>3.9773705295855444</v>
-      </c>
-      <c r="N41" s="1">
-        <f t="shared" si="6"/>
-        <v>0.35990449217899845</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.4297241966251153E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>15</v>
-      </c>
-      <c r="B42">
-        <v>247.47126901149699</v>
-      </c>
-      <c r="C42">
-        <v>253.52532696723901</v>
-      </c>
-      <c r="D42">
-        <v>293.08487010002102</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="4"/>
-        <v>4.4611318319031295</v>
-      </c>
-      <c r="M42" s="1">
-        <f t="shared" si="5"/>
-        <v>1.4870439439677099</v>
-      </c>
-      <c r="N42" s="1">
-        <f t="shared" si="6"/>
-        <v>0.13917416676888522</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>5.5287077015879883E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>16</v>
-      </c>
-      <c r="B43">
-        <v>74.102552503346999</v>
-      </c>
-      <c r="C43">
-        <v>79.874055236577902</v>
-      </c>
-      <c r="D43">
-        <v>95.899480611085806</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="4"/>
-        <v>1.4037982491629815</v>
-      </c>
-      <c r="M43" s="1">
-        <f t="shared" si="5"/>
-        <v>0.4679327497209938</v>
-      </c>
-      <c r="N43" s="1">
-        <f t="shared" si="6"/>
-        <v>6.3445457025441923E-2</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>2.5203771291106551E-4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>17</v>
-      </c>
-      <c r="B44">
-        <v>11.379781335592201</v>
-      </c>
-      <c r="C44">
-        <v>12.5552486628293</v>
-      </c>
-      <c r="D44">
-        <v>15.4917652457952</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="4"/>
-        <v>0.22149884968661065</v>
-      </c>
-      <c r="M44" s="1">
-        <f t="shared" si="5"/>
-        <v>7.383294989553689E-2</v>
-      </c>
-      <c r="N44" s="1">
-        <f t="shared" si="6"/>
-        <v>1.1898372587768703E-2</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="7"/>
-        <v>4.7266404167951559E-5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>18</v>
-      </c>
-      <c r="B45">
-        <v>7.1501958705484796</v>
-      </c>
-      <c r="C45">
-        <v>1.18356829881668</v>
-      </c>
-      <c r="D45">
-        <v>0.40572975389659399</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="4"/>
-        <v>4.9098280467762663E-2</v>
-      </c>
-      <c r="M45" s="1">
-        <f t="shared" si="5"/>
-        <v>1.6366093489254222E-2</v>
-      </c>
-      <c r="N45" s="1">
-        <f t="shared" si="6"/>
-        <v>2.0729943839380365E-2</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="7"/>
-        <v>8.2349909339562641E-5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>19</v>
-      </c>
-      <c r="B46">
-        <v>10.160134799778399</v>
-      </c>
-      <c r="C46">
-        <v>0.77722753852140103</v>
-      </c>
-      <c r="D46">
-        <v>-1.08441925235092</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="4"/>
-        <v>5.5353612842409444E-2</v>
-      </c>
-      <c r="M46" s="1">
-        <f t="shared" si="5"/>
-        <v>1.845120428080315E-2</v>
-      </c>
-      <c r="N46" s="1">
-        <f t="shared" si="6"/>
-        <v>3.3859263096252791E-2</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="7"/>
-        <v>1.3450626146820093E-4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50">
-        <f>SUM(B27:B46)</f>
-        <v>188822.16968395145</v>
-      </c>
-      <c r="C50">
-        <f t="shared" ref="C50:D50" si="8">SUM(C27:C46)</f>
-        <v>185630.31344630604</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="8"/>
-        <v>188884.46253321334</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>8</v>
-      </c>
-      <c r="B51">
-        <f>SUM(B3:B22)</f>
-        <v>166536</v>
-      </c>
-      <c r="C51">
-        <f t="shared" ref="C51:D51" si="9">SUM(C3:C22)</f>
-        <v>188269</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="9"/>
-        <v>190748</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>9</v>
       </c>
       <c r="B52">
         <f>B50-B51</f>
-        <v>22286.169683951448</v>
+        <v>0</v>
       </c>
       <c r="C52">
-        <f t="shared" ref="C52:D52" si="10">C50-C51</f>
-        <v>-2638.6865536939586</v>
+        <f t="shared" ref="C52" si="2">C50-C51</f>
+        <v>-2031.3916487063398</v>
       </c>
       <c r="D52">
-        <f t="shared" si="10"/>
-        <v>-1863.5374667866563</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <f>D50-D51</f>
+        <v>7695.5528637903044</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52" si="3">E50-E51</f>
+        <v>7234.1160128122137</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53">
         <f>B52/B51</f>
-        <v>0.13382193450035695</v>
+        <v>0</v>
       </c>
       <c r="C53">
-        <f t="shared" ref="C53:D53" si="11">C52/C51</f>
-        <v>-1.4015512663762799E-2</v>
+        <f t="shared" ref="C53" si="4">C52/C51</f>
+        <v>-1.0785138643842293E-2</v>
       </c>
       <c r="D53">
-        <f t="shared" si="11"/>
-        <v>-9.7696304379949264E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+        <f>D52/D51</f>
+        <v>4.2239625352878916E-2</v>
+      </c>
+      <c r="E53">
+        <f>E52/E51</f>
+        <v>3.9720609541865279E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54">
         <f>(B50-B51)^2/B51</f>
-        <v>2982.3783397095917</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <f t="shared" ref="C54:D54" si="12">(C50-C51)^2/C51</f>
-        <v>36.982544808998298</v>
+        <f t="shared" ref="C54" si="5">(C50-C51)^2/C51</f>
+        <v>21.908840571241253</v>
       </c>
       <c r="D54">
-        <f t="shared" si="12"/>
-        <v>18.206072357862876</v>
+        <f>(D50-D51)^2/D51</f>
+        <v>325.0572698497769</v>
+      </c>
+      <c r="E54">
+        <f>(E50-E51)^2/E51</f>
+        <v>287.34349752546922</v>
       </c>
     </row>
   </sheetData>
@@ -3438,6 +3592,7 @@
     <mergeCell ref="L25:O25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>